--- a/reval/package-data/STDSPECS_FT_Combined_FTDataset_3.21.23.xlsx
+++ b/reval/package-data/STDSPECS_FT_Combined_FTDataset_3.21.23.xlsx
@@ -1,46 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3420D5E-06A2-44C1-8FEB-DEEE5EC8CCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Study" sheetId="1" state="visible" r:id="rId4"/>
-    <sheet name="Datasets" sheetId="2" state="visible" r:id="rId5"/>
-    <sheet name="Variables" sheetId="3" state="visible" r:id="rId6"/>
-    <sheet name="ValueLevel" sheetId="4" state="visible" r:id="rId7"/>
-    <sheet name="Codelists" sheetId="5" state="visible" r:id="rId8"/>
-    <sheet name="Dictionaries" sheetId="6" state="visible" r:id="rId9"/>
-    <sheet name="WhereClauses" sheetId="7" state="visible" r:id="rId10"/>
-    <sheet name="Methods" sheetId="8" state="visible" r:id="rId11"/>
-    <sheet name="Comments" sheetId="9" state="visible" r:id="rId12"/>
-    <sheet name="Documents" sheetId="10" state="visible" r:id="rId13"/>
+    <sheet name="Study" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="ValueLevel" sheetId="4" r:id="rId4"/>
+    <sheet name="Codelists" sheetId="5" r:id="rId5"/>
+    <sheet name="Dictionaries" sheetId="6" r:id="rId6"/>
+    <sheet name="WhereClauses" sheetId="7" r:id="rId7"/>
+    <sheet name="Methods" sheetId="8" r:id="rId8"/>
+    <sheet name="Comments" sheetId="9" r:id="rId9"/>
+    <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WhereClauses!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WhereClauses!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="422">
   <si>
     <t>Attribute</t>
   </si>
@@ -51,31 +50,31 @@
     <t>StudyName</t>
   </si>
   <si>
-    <t xml:space="preserve">BACPAC Research Consortium</t>
+    <t>BACPAC Research Consortium</t>
   </si>
   <si>
     <t>StudyDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Observational Study</t>
+    <t>Observational Study</t>
   </si>
   <si>
     <t>ProtocolName</t>
   </si>
   <si>
-    <t xml:space="preserve">FT Domain Example</t>
+    <t>FT Domain Example</t>
   </si>
   <si>
     <t>StandardName</t>
   </si>
   <si>
-    <t xml:space="preserve">BACPAC Modified SDTM Standard</t>
+    <t>BACPAC Modified SDTM Standard</t>
   </si>
   <si>
     <t>StandardVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 (Modified)</t>
+    <t>3.1.2 (Modified)</t>
   </si>
   <si>
     <t>Language</t>
@@ -99,13 +98,13 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Key Variables</t>
+    <t>Key Variables</t>
   </si>
   <si>
     <t>Repeating</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference Data</t>
+    <t>Reference Data</t>
   </si>
   <si>
     <t>Comment</t>
@@ -114,19 +113,19 @@
     <t>FT</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Tests</t>
+    <t>Functional Tests</t>
   </si>
   <si>
     <t>Findings</t>
   </si>
   <si>
-    <t xml:space="preserve">One record per Functional Test finding per time point per visit per subject</t>
+    <t>One record per Functional Test finding per time point per visit per subject</t>
   </si>
   <si>
     <t>Tabulation</t>
   </si>
   <si>
-    <t xml:space="preserve">STUDYID, USUBJID, TESTCD, VISITNUM, FTPOS, FTLAT, FTREPNUM</t>
+    <t>STUDYID, USUBJID, TESTCD, VISITNUM, FTPOS, FTLAT, FTREPNUM</t>
   </si>
   <si>
     <t>Yes</t>
@@ -144,13 +143,13 @@
     <t>Label</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Type</t>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Length</t>
   </si>
   <si>
-    <t xml:space="preserve">Significant Digits</t>
+    <t>Significant Digits</t>
   </si>
   <si>
     <t>Format</t>
@@ -183,7 +182,7 @@
     <t>STUDYID</t>
   </si>
   <si>
-    <t xml:space="preserve">Study Identifier</t>
+    <t>Study Identifier</t>
   </si>
   <si>
     <t>text</t>
@@ -198,7 +197,7 @@
     <t>DOMAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain Abbreviation</t>
+    <t>Domain Abbreviation</t>
   </si>
   <si>
     <t>FTDOMAIN</t>
@@ -210,7 +209,7 @@
     <t>USUBJID</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique Subject Identifier</t>
+    <t>Unique Subject Identifier</t>
   </si>
   <si>
     <t>4</t>
@@ -219,7 +218,7 @@
     <t>FTSEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequence Number</t>
+    <t>Sequence Number</t>
   </si>
   <si>
     <t>integer</t>
@@ -231,7 +230,7 @@
     <t>FTTESTCD</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name of Test</t>
+    <t>Short Name of Test</t>
   </si>
   <si>
     <t>Timing</t>
@@ -243,10 +242,10 @@
     <t>FTTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synonym Qualifier</t>
+    <t>Name of Test</t>
+  </si>
+  <si>
+    <t>Synonym Qualifier</t>
   </si>
   <si>
     <t>7</t>
@@ -258,7 +257,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Grouping Qualifier</t>
+    <t>Grouping Qualifier</t>
   </si>
   <si>
     <t>8</t>
@@ -267,13 +266,13 @@
     <t>FTPOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Position of Subject During Observation</t>
+    <t>Position of Subject During Observation</t>
   </si>
   <si>
     <t>POSITION</t>
   </si>
   <si>
-    <t xml:space="preserve">Record Qualifier</t>
+    <t>Record Qualifier</t>
   </si>
   <si>
     <t>9</t>
@@ -282,7 +281,7 @@
     <t>FTLOC</t>
   </si>
   <si>
-    <t xml:space="preserve">Location Used for the Measurement</t>
+    <t>Location Used for the Measurement</t>
   </si>
   <si>
     <t>10</t>
@@ -294,7 +293,7 @@
     <t>Laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable Qualifier</t>
+    <t>Variable Qualifier</t>
   </si>
   <si>
     <t>11</t>
@@ -303,10 +302,10 @@
     <t>FTSTRESC</t>
   </si>
   <si>
-    <t xml:space="preserve">Result or Finding in Standard Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Qualifier</t>
+    <t>Result or Finding in Standard Format</t>
+  </si>
+  <si>
+    <t>Result Qualifier</t>
   </si>
   <si>
     <t>12</t>
@@ -315,7 +314,7 @@
     <t>FTSTRESU</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard Units</t>
+    <t>Standard Units</t>
   </si>
   <si>
     <t>UNIT</t>
@@ -327,7 +326,7 @@
     <t>FTSTRESN</t>
   </si>
   <si>
-    <t xml:space="preserve">Numeric Result/Finding in Standard Units</t>
+    <t>Numeric Result/Finding in Standard Units</t>
   </si>
   <si>
     <t>float</t>
@@ -339,7 +338,7 @@
     <t>FTSTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Completion Status</t>
+    <t>Completion Status</t>
   </si>
   <si>
     <t>ND</t>
@@ -351,7 +350,7 @@
     <t>FTREASND</t>
   </si>
   <si>
-    <t xml:space="preserve">Reason Not Done</t>
+    <t>Reason Not Done</t>
   </si>
   <si>
     <t>16</t>
@@ -360,7 +359,7 @@
     <t>FTDRVFL</t>
   </si>
   <si>
-    <t xml:space="preserve">Derived Flag</t>
+    <t>Derived Flag</t>
   </si>
   <si>
     <t>17</t>
@@ -369,7 +368,7 @@
     <t>FTREPNUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Repetition Number</t>
+    <t>Repetition Number</t>
   </si>
   <si>
     <t>18</t>
@@ -378,13 +377,13 @@
     <t>FTAID</t>
   </si>
   <si>
-    <t xml:space="preserve">Aid Used During Test</t>
+    <t>Aid Used During Test</t>
   </si>
   <si>
     <t>AID</t>
   </si>
   <si>
-    <t xml:space="preserve">Not CDISC variable</t>
+    <t>Not CDISC variable</t>
   </si>
   <si>
     <t>19</t>
@@ -393,7 +392,7 @@
     <t>FTAIDOTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Aid Used During Test</t>
+    <t>Other Aid Used During Test</t>
   </si>
   <si>
     <t>20</t>
@@ -402,7 +401,7 @@
     <t>VISITNUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit Number</t>
+    <t>Visit Number</t>
   </si>
   <si>
     <t>21</t>
@@ -411,7 +410,7 @@
     <t>VISIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit Name</t>
+    <t>Visit Name</t>
   </si>
   <si>
     <t>22</t>
@@ -420,7 +419,7 @@
     <t>FTDTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Date/Time of Test</t>
+    <t>Date/Time of Test</t>
   </si>
   <si>
     <t>date</t>
@@ -435,10 +434,10 @@
     <t>FTDY</t>
   </si>
   <si>
-    <t xml:space="preserve">Study Day of Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where Clause</t>
+    <t>Study Day of Test</t>
+  </si>
+  <si>
+    <t>Where Clause</t>
   </si>
   <si>
     <t>FTLEXSENS_WC1</t>
@@ -585,16 +584,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">NCI Codelist Code</t>
+    <t>NCI Codelist Code</t>
   </si>
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t xml:space="preserve">NCI Term Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoded Value</t>
+    <t>NCI Term Code</t>
+  </si>
+  <si>
+    <t>Decoded Value</t>
   </si>
   <si>
     <t>Subcategory</t>
@@ -603,16 +602,16 @@
     <t>Derived</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation Interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Short Name</t>
+    <t>Evaluation Interval</t>
+  </si>
+  <si>
+    <t>Functional Test Short Name</t>
   </si>
   <si>
     <t>LEXSENS</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Sensory Grading</t>
+    <t>Lower Extremity Sensory Grading</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Sensory                  </t>
@@ -621,112 +620,112 @@
     <t>LEXREFLX</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Reflex Grading</t>
+    <t>Lower Extremity Reflex Grading</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Reflex          </t>
   </si>
   <si>
-    <t xml:space="preserve">Babinski Sign</t>
+    <t>Babinski Sign</t>
   </si>
   <si>
     <t>LEXMYOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Myotome Grading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Extremity Myotome</t>
+    <t>Lower Extremity Myotome Grading</t>
+  </si>
+  <si>
+    <t>Lower Extremity Myotome</t>
   </si>
   <si>
     <t>SLCRMYOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Leg Calf Raise Myotome Grading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Leg Calf Raise Myotome</t>
+    <t>Single Leg Calf Raise Myotome Grading</t>
+  </si>
+  <si>
+    <t>Single Leg Calf Raise Myotome</t>
   </si>
   <si>
     <t>LUMSEGP</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Provoked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain and Prone Instability</t>
+    <t>Lumbar Segmental Mobility Pain Provoked</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain and Prone Instability</t>
   </si>
   <si>
     <t>LUMSEG</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Grading</t>
+    <t>Lumbar Segmental Mobility Grading</t>
   </si>
   <si>
     <t>LUMSEGPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Was pain produced during the segmental mobility test</t>
+    <t>Was pain produced during the segmental mobility test</t>
   </si>
   <si>
     <t>LUMSEGPL</t>
   </si>
   <si>
-    <t xml:space="preserve">What was the most painful segment during the segmental mobility test</t>
+    <t>What was the most painful segment during the segmental mobility test</t>
   </si>
   <si>
     <t>PRONINST</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain reduced or eliminated when springing pressure is reapplied to the most painful lumbar segment</t>
+    <t>Pain reduced or eliminated when springing pressure is reapplied to the most painful lumbar segment</t>
   </si>
   <si>
     <t>GRNPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Groin pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hip Internal Rotation Mobility</t>
+    <t>Groin pain</t>
+  </si>
+  <si>
+    <t>Hip Internal Rotation Mobility</t>
   </si>
   <si>
     <t>HIPIRD</t>
   </si>
   <si>
-    <t xml:space="preserve">Hip internal rotation</t>
+    <t>Hip internal rotation</t>
   </si>
   <si>
     <t>LFLEXT12</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Flexion over T12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Flexibility and Dynamic Range of Motion</t>
+    <t>Lumbar Flexion over T12</t>
+  </si>
+  <si>
+    <t>Lumbar Flexibility and Dynamic Range of Motion</t>
   </si>
   <si>
     <t>LFLEXS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Flexion over S1</t>
+    <t>Lumbar Flexion over S1</t>
   </si>
   <si>
     <t>LEXTNT12</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Extension over T12</t>
+    <t>Lumbar Extension over T12</t>
   </si>
   <si>
     <t>LEXTNS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Extension over S1</t>
+    <t>Lumbar Extension over S1</t>
   </si>
   <si>
     <t>LFLEXTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">T12 flexion from trial 1 - S1 flexion from trial 2</t>
+    <t>T12 flexion from trial 1 - S1 flexion from trial 2</t>
   </si>
   <si>
     <t>Y</t>
@@ -735,13 +734,13 @@
     <t>LEXTNTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">T12 extension from trial 1 - S1 extension from trial 2</t>
+    <t>T12 extension from trial 1 - S1 extension from trial 2</t>
   </si>
   <si>
     <t>WALK4M</t>
   </si>
   <si>
-    <t xml:space="preserve">Four Meter Walk Test</t>
+    <t>Four Meter Walk Test</t>
   </si>
   <si>
     <t xml:space="preserve">Four Meter Walk               </t>
@@ -750,25 +749,25 @@
     <t>SIT2ST5X</t>
   </si>
   <si>
-    <t xml:space="preserve">Five Times Sit to Stand Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five Times Sit to Stand</t>
+    <t>Five Times Sit to Stand Test</t>
+  </si>
+  <si>
+    <t>Five Times Sit to Stand</t>
   </si>
   <si>
     <t>TMWTOTD</t>
   </si>
   <si>
-    <t xml:space="preserve">Two Minute Walk Total Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Minute Walk</t>
+    <t>Two Minute Walk Total Distance</t>
+  </si>
+  <si>
+    <t>Two Minute Walk</t>
   </si>
   <si>
     <t>REPMFLX1</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Pain</t>
+    <t>Repeated Movement Flexion Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Repeated Movement   </t>
@@ -777,184 +776,184 @@
     <t>REPMFLX2</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Peripheralization</t>
+    <t>Repeated Movement Flexion Peripheralization</t>
   </si>
   <si>
     <t>REPMFLX3</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Centralization</t>
+    <t>Repeated Movement Flexion Centralization</t>
   </si>
   <si>
     <t>REPMFLX4</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Directional Preference</t>
+    <t>Repeated Movement Flexion Directional Preference</t>
   </si>
   <si>
     <t>ABMOTPRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Any aberrant motion present</t>
+    <t>Any aberrant motion present</t>
   </si>
   <si>
     <t>ABERMOT1</t>
   </si>
   <si>
-    <t xml:space="preserve">Painful Arc of Motion</t>
+    <t>Painful Arc of Motion</t>
   </si>
   <si>
     <t>ABERMOT2</t>
   </si>
   <si>
-    <t xml:space="preserve">Gower's Sign Thigh Climbing</t>
+    <t>Gower's Sign Thigh Climbing</t>
   </si>
   <si>
     <t>ABERMOT3</t>
   </si>
   <si>
-    <t xml:space="preserve">Reversal of Lumbopelvic Rhythm</t>
+    <t>Reversal of Lumbopelvic Rhythm</t>
   </si>
   <si>
     <t>ABERMOT4</t>
   </si>
   <si>
-    <t xml:space="preserve">Deviation or Instability Catch</t>
+    <t>Deviation or Instability Catch</t>
   </si>
   <si>
     <t>REPMEXPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Pain</t>
+    <t>Repeated Movement Extension Pain</t>
   </si>
   <si>
     <t>REPMEXPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Peripheralization</t>
+    <t>Repeated Movement Extension Peripheralization</t>
   </si>
   <si>
     <t>REPMEXCN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Centralization</t>
+    <t>Repeated Movement Extension Centralization</t>
   </si>
   <si>
     <t>REPMEXDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Directional Preference</t>
+    <t>Repeated Movement Extension Directional Preference</t>
   </si>
   <si>
     <t>REPGLDPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Pain</t>
+    <t>Repeated Movement Side-Gliding Pain</t>
   </si>
   <si>
     <t>REPGLDPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Peripheralization</t>
+    <t>Repeated Movement Side-Gliding Peripheralization</t>
   </si>
   <si>
     <t>REPGLDCN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Centralization</t>
+    <t>Repeated Movement Side-Gliding Centralization</t>
   </si>
   <si>
     <t>REPGLDDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Directional Preference</t>
+    <t>Repeated Movement Side-Gliding Directional Preference</t>
   </si>
   <si>
     <t>EPAINRT</t>
   </si>
   <si>
-    <t xml:space="preserve">Ending Pain Rating</t>
+    <t>Ending Pain Rating</t>
   </si>
   <si>
     <t>LOWBPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Back Pain Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Pressure Threshold</t>
+    <t>Low Back Pain Rating</t>
+  </si>
+  <si>
+    <t>Pain Pressure Threshold</t>
   </si>
   <si>
     <t>PPTTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Pressure Threshold Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What side is back pain more dominant</t>
+    <t>Pain Pressure Threshold Test</t>
+  </si>
+  <si>
+    <t>What side is back pain more dominant</t>
   </si>
   <si>
     <t>PNTSUM01</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Temporal Summation After 1st Pinprick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Temporal Summation</t>
+    <t>Pain Temporal Summation After 1st Pinprick</t>
+  </si>
+  <si>
+    <t>Pain Temporal Summation</t>
   </si>
   <si>
     <t>PNTSUM10</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Temporal Summation After 10th Pinprick</t>
+    <t>Pain Temporal Summation After 10th Pinprick</t>
   </si>
   <si>
     <t>LINGPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Participant Reports Lingering Pain After 10th Pinprick</t>
+    <t>Participant Reports Lingering Pain After 10th Pinprick</t>
   </si>
   <si>
     <t>LINGPN15</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Rating at 15-sec Post</t>
+    <t>Pain Rating at 15-sec Post</t>
   </si>
   <si>
     <t>LINGPN30</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Rating at 30-sec Post</t>
+    <t>Pain Rating at 30-sec Post</t>
   </si>
   <si>
     <t>MDPTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean difference between 1st and 10th pinprick using data from all 3 trials</t>
+    <t>Mean difference between 1st and 10th pinprick using data from all 3 trials</t>
   </si>
   <si>
     <t>PTSMN15S</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean of 15 second pain reports</t>
+    <t>Mean of 15 second pain reports</t>
   </si>
   <si>
     <t>PTSMN30S</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean of 30 second pain reports</t>
+    <t>Mean of 30 second pain reports</t>
   </si>
   <si>
     <t>CPMPPT</t>
   </si>
   <si>
-    <t xml:space="preserve">Conditional Pain Modulation Pain Temporal Summation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Pain Modulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Name</t>
+    <t>Conditional Pain Modulation Pain Temporal Summation</t>
+  </si>
+  <si>
+    <t>Conditional Pain Modulation</t>
+  </si>
+  <si>
+    <t>Functional Test Name</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Myotome                </t>
@@ -963,76 +962,76 @@
     <t xml:space="preserve">Five Times Sit to Stand                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Conditional Pain Modulation Pain Pressure Threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Anteromedial Lower Leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Distal Anterior Tibia and Dorsum of Foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Posterolateral Calf and Foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Patellar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Medial Hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Achilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2/L3: Hip Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3/L4: Quadriceps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Ankle Dorsiflexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Great Toe Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Hamstring and Ankle Eversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Ankle Eversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L5</t>
+    <t>Conditional Pain Modulation Pain Pressure Threshold</t>
+  </si>
+  <si>
+    <t>Functional Test Category</t>
+  </si>
+  <si>
+    <t>L4: Anteromedial Lower Leg</t>
+  </si>
+  <si>
+    <t>L5: Distal Anterior Tibia and Dorsum of Foot</t>
+  </si>
+  <si>
+    <t>S1: Posterolateral Calf and Foot</t>
+  </si>
+  <si>
+    <t>L4: Patellar</t>
+  </si>
+  <si>
+    <t>L5: Medial Hamstring</t>
+  </si>
+  <si>
+    <t>S1: Achilles</t>
+  </si>
+  <si>
+    <t>L2/L3: Hip Flexion</t>
+  </si>
+  <si>
+    <t>L3/L4: Quadriceps</t>
+  </si>
+  <si>
+    <t>L4: Ankle Dorsiflexion</t>
+  </si>
+  <si>
+    <t>L5: Great Toe Extension</t>
+  </si>
+  <si>
+    <t>S1: Hamstring</t>
+  </si>
+  <si>
+    <t>S1: Hamstring and Ankle Eversion</t>
+  </si>
+  <si>
+    <t>S1: Ankle Eversion</t>
+  </si>
+  <si>
+    <t>Lumbar L1</t>
+  </si>
+  <si>
+    <t>Lumbar L2</t>
+  </si>
+  <si>
+    <t>Lumbar L3</t>
+  </si>
+  <si>
+    <t>Lumbar L4</t>
+  </si>
+  <si>
+    <t>Lumbar L5</t>
   </si>
   <si>
     <t>Trapezius</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volar Forearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Region</t>
+    <t>Lower Back</t>
+  </si>
+  <si>
+    <t>Volar Forearm</t>
+  </si>
+  <si>
+    <t>Lumbar Region</t>
   </si>
   <si>
     <t>Left</t>
@@ -1056,7 +1055,7 @@
     <t>Side-lying</t>
   </si>
   <si>
-    <t xml:space="preserve">Original or Standardized Units</t>
+    <t>Original or Standardized Units</t>
   </si>
   <si>
     <t>Seconds</t>
@@ -1071,10 +1070,10 @@
     <t>kg/cm2</t>
   </si>
   <si>
-    <t xml:space="preserve">Kilogram per centimeter squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not done</t>
+    <t>Kilogram per centimeter squared</t>
+  </si>
+  <si>
+    <t>Not done</t>
   </si>
   <si>
     <t>None</t>
@@ -1086,25 +1085,22 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">LE Sensory Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None/Diminished (light pain and/or pain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypersensitivity (light touch perceived as pain)</t>
+    <t>LE Sensory Scale</t>
+  </si>
+  <si>
+    <t>None/Diminished (light pain and/or pain)</t>
+  </si>
+  <si>
+    <t>Normal Sensation</t>
+  </si>
+  <si>
+    <t>Hypersensitivity (light touch perceived as pain)</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">LE Reflex Scale</t>
-  </si>
-  <si>
-    <t>Abesent/Diminished</t>
+    <t>LE Reflex Scale</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1113,67 +1109,67 @@
     <t>Increased</t>
   </si>
   <si>
-    <t xml:space="preserve">Downgoing (normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgoing (abnormal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendall Motor Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flicker or trace of contraction w/min or no motion of joints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement w/gravity eliminated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity, but not against resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity w/some resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity w/full resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Leg Calf Raise Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The tester can feel the contraction of muscle, but no movement of the body part occurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial ROM, less than 1 quality repetition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 1 quality repetition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 2-3 quality repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 4-5 quality repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes No Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypo (Decreased)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper (Increased)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Location</t>
+    <t>Downgoing (normal)</t>
+  </si>
+  <si>
+    <t>Upgoing (abnormal)</t>
+  </si>
+  <si>
+    <t>Kendall Motor Strength</t>
+  </si>
+  <si>
+    <t>No contraction</t>
+  </si>
+  <si>
+    <t>Flicker or trace of contraction w/min or no motion of joints</t>
+  </si>
+  <si>
+    <t>Active movement w/gravity eliminated</t>
+  </si>
+  <si>
+    <t>Active movement against gravity, but not against resistance</t>
+  </si>
+  <si>
+    <t>Active movement against gravity w/some resistance</t>
+  </si>
+  <si>
+    <t>Active movement against gravity w/full resistance</t>
+  </si>
+  <si>
+    <t>Single Leg Calf Raise Scale</t>
+  </si>
+  <si>
+    <t>No muscle contraction</t>
+  </si>
+  <si>
+    <t>The tester can feel the contraction of muscle, but no movement of the body part occurs</t>
+  </si>
+  <si>
+    <t>Partial ROM, less than 1 quality repetition</t>
+  </si>
+  <si>
+    <t>Full ROM, 1 quality repetition</t>
+  </si>
+  <si>
+    <t>Full ROM, 2-3 quality repetitions</t>
+  </si>
+  <si>
+    <t>Full ROM, 4-5 quality repetitions</t>
+  </si>
+  <si>
+    <t>Yes No Response</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain Level</t>
+  </si>
+  <si>
+    <t>Hypo (Decreased)</t>
+  </si>
+  <si>
+    <t>Hyper (Increased)</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain Location</t>
   </si>
   <si>
     <t>L1</t>
@@ -1191,52 +1187,52 @@
     <t>L5</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No change</t>
+    <t>Repeated Movement Pain</t>
+  </si>
+  <si>
+    <t>No change</t>
   </si>
   <si>
     <t>Decreased</t>
   </si>
   <si>
-    <t xml:space="preserve">Aberrant Motion Presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going into Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Returning from Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going into Flexion and Returning from Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerical Pain Rating Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst pain imaginable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low Back Pain Rating Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst imaginable pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extremely intense pain sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant Pain Side</t>
+    <t>Aberrant Motion Presence</t>
+  </si>
+  <si>
+    <t>Going into Flexion</t>
+  </si>
+  <si>
+    <t>Returning from Flexion</t>
+  </si>
+  <si>
+    <t>Going into Flexion and Returning from Flexion</t>
+  </si>
+  <si>
+    <t>Numerical Pain Rating Scale</t>
+  </si>
+  <si>
+    <t>No pain at all</t>
+  </si>
+  <si>
+    <t>Worst pain imaginable</t>
+  </si>
+  <si>
+    <t>Low Back Pain Rating Scale</t>
+  </si>
+  <si>
+    <t>No pain</t>
+  </si>
+  <si>
+    <t>Worst imaginable pain</t>
+  </si>
+  <si>
+    <t>No pain sensation</t>
+  </si>
+  <si>
+    <t>Extremely intense pain sensation</t>
+  </si>
+  <si>
+    <t>Dominant Pain Side</t>
   </si>
   <si>
     <t>Both</t>
@@ -1257,46 +1253,46 @@
     <t>IN</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMSEGP, LUMSEGPI, PRONINST, GRNPAIN,REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, REPMEXPE, REPMEXCN, REPMEXDP, REPGLDPE, REPGLDCN, REPGLDDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALK4M, SIT2ST5X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPMFLX1, REPMEXPN, REPGLDPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4</t>
+    <t>LUMSEGP, LUMSEGPI, PRONINST, GRNPAIN,REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, REPMEXPE, REPMEXCN, REPMEXDP, REPGLDPE, REPGLDCN, REPGLDDP</t>
+  </si>
+  <si>
+    <t>HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT</t>
+  </si>
+  <si>
+    <t>WALK4M, SIT2ST5X</t>
+  </si>
+  <si>
+    <t>REPMFLX1, REPMEXPN, REPGLDPN</t>
+  </si>
+  <si>
+    <t>ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4</t>
   </si>
   <si>
     <t>PPTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">PNTSUM01, PNTSUM10, LINGPN15, LINGPN30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDPTS, PTSMN15S, PTSMN30S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALK4M, TMWTOTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXSENS, LEXREFLX, BABINSKI, LEXMYOT, SLCRMYOT, LUMSEGP, LUMSEG, LUMSEGPI, LUMSEGPL, PRONINST, GRNPAIN, HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT, WALK4M, SIT2ST5X, TMWTOTD, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, EPAINRT, LOWBPAIN, PPTTEST, LBPSIDE, PNTSUM01, PNTSUM10, LINGPAIN, LINGPAIN15, LINGPN30,  MDPTS, PTSMN15S, PTSMN30S, CPMPPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXMYOT, PPTTEST, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4</t>
+    <t>PNTSUM01, PNTSUM10, LINGPN15, LINGPN30</t>
+  </si>
+  <si>
+    <t>MDPTS, PTSMN15S, PTSMN30S</t>
+  </si>
+  <si>
+    <t>WALK4M, TMWTOTD</t>
+  </si>
+  <si>
+    <t>LEXSENS, LEXREFLX, BABINSKI, LEXMYOT, SLCRMYOT, LUMSEGP, LUMSEG, LUMSEGPI, LUMSEGPL, PRONINST, GRNPAIN, HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT, WALK4M, SIT2ST5X, TMWTOTD, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, EPAINRT, LOWBPAIN, PPTTEST, LBPSIDE, PNTSUM01, PNTSUM10, LINGPAIN, LINGPAIN15, LINGPN30,  MDPTS, PTSMN15S, PTSMN30S, CPMPPT</t>
+  </si>
+  <si>
+    <t>LEXMYOT, PPTTEST, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Expression Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression Code</t>
+    <t>Expression Context</t>
+  </si>
+  <si>
+    <t>Expression Code</t>
   </si>
   <si>
     <t>Document</t>
@@ -1306,38 +1302,47 @@
   </si>
   <si>
     <t>Href</t>
+  </si>
+  <si>
+    <t>Absent/Diminished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1364,46 +1369,44 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="2"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,295 +1414,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,24 +1625,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,70 +1702,70 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
-    <col customWidth="1" min="3" max="3" width="19.42578125"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>421</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.7109375"/>
-    <col customWidth="1" min="2" max="2" width="23.42578125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="16.7109375"/>
-    <col customWidth="1" min="4" max="4" width="60.42578125"/>
-    <col customWidth="1" min="5" max="5" width="12.42578125"/>
-    <col customWidth="1" min="6" max="6" width="58.42578125"/>
-    <col customWidth="1" min="7" max="7" width="12.42578125"/>
-    <col customWidth="1" min="8" max="8" width="15.42578125"/>
-    <col customWidth="1" min="9" max="9" width="19.42578125"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="58.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2095,42 +1821,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="3" width="8.42578125"/>
-    <col customWidth="1" min="2" max="2" width="9.7109375"/>
-    <col customWidth="1" min="3" max="3" width="14.42578125"/>
-    <col customWidth="1" min="4" max="4" width="45.7109375"/>
-    <col customWidth="1" min="5" max="5" width="11"/>
-    <col customWidth="1" min="6" max="6" style="4" width="8.42578125"/>
-    <col customWidth="1" min="7" max="7" style="3" width="15.42578125"/>
-    <col customWidth="1" min="8" max="8" style="3" width="11"/>
-    <col customWidth="1" min="9" max="9" width="12.42578125"/>
-    <col customWidth="1" min="10" max="10" width="11"/>
-    <col customWidth="1" min="11" max="11" width="17.42578125"/>
-    <col customWidth="1" min="12" max="13" width="11.7109375"/>
-    <col customWidth="1" min="14" max="14" width="15.28515625"/>
-    <col customWidth="1" min="15" max="15" width="21.42578125"/>
-    <col customWidth="1" min="16" max="16" width="24.42578125"/>
+    <col min="1" max="1" width="8.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="45.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" customWidth="1"/>
+    <col min="12" max="13" width="11.73046875" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" customWidth="1"/>
+    <col min="15" max="15" width="21.3984375" customWidth="1"/>
+    <col min="16" max="16" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -2206,7 +1933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -2235,7 +1962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
@@ -2261,23 +1988,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2286,22 +2013,21 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="O5" s="9" t="s">
+      <c r="O5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2314,24 +2040,24 @@
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2344,24 +2070,24 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2374,24 +2100,24 @@
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2404,24 +2130,24 @@
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2434,24 +2160,24 @@
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2464,24 +2190,24 @@
       <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2494,22 +2220,21 @@
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="O12" s="9" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2522,24 +2247,24 @@
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2552,22 +2277,21 @@
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="O14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2580,24 +2304,24 @@
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2610,22 +2334,21 @@
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="O16" s="9" t="s">
+      <c r="O16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2638,22 +2361,21 @@
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="O17" s="9" t="s">
+      <c r="O17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2666,22 +2388,21 @@
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="O18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2694,27 +2415,27 @@
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" t="s">
         <v>77</v>
       </c>
       <c r="P19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2727,25 +2448,24 @@
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="O20" t="s">
         <v>68</v>
       </c>
       <c r="P20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2758,22 +2478,21 @@
       <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="O21" s="9" t="s">
+      <c r="O21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2786,28 +2505,26 @@
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="O22" s="9" t="s">
+      <c r="O22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="7"/>
       <c r="H23" s="3" t="s">
         <v>128</v>
@@ -2815,28 +2532,27 @@
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="O23" s="9" t="s">
+      <c r="O23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" ht="15.949999999999999">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2845,97 +2561,96 @@
       <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="O24" s="9" t="s">
+      <c r="O24" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P24"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:P24" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.7109375"/>
-    <col customWidth="1" min="2" max="3" width="18.7109375"/>
-    <col customWidth="1" min="4" max="4" width="26.140625"/>
-    <col customWidth="1" min="5" max="5" width="23.42578125"/>
-    <col customWidth="1" min="6" max="6" width="11.7109375"/>
-    <col customWidth="1" min="7" max="7" width="10.140625"/>
-    <col customWidth="1" min="8" max="8" width="15.42578125"/>
-    <col customWidth="1" min="9" max="9" width="11"/>
-    <col customWidth="1" min="10" max="10" width="11.7109375"/>
-    <col customWidth="1" min="11" max="12" width="12.85546875"/>
-    <col customWidth="1" min="13" max="13" width="11.7109375"/>
-    <col customWidth="1" min="14" max="14" width="13.7109375"/>
-    <col customWidth="1" min="15" max="15" width="15.28515625"/>
-    <col customWidth="1" min="16" max="16" width="15.42578125"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="11" max="12" width="12.86328125" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2958,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2981,7 +2696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3004,7 +2719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3027,7 +2742,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3050,7 +2765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3073,7 +2788,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3096,7 +2811,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3119,7 +2834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3142,7 +2857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3165,7 +2880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3188,7 +2903,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3211,7 +2926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3234,7 +2949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3257,7 +2972,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3277,7 +2992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3300,7 +3015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3320,10 +3035,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>5.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3343,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3366,7 +3081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11</v>
       </c>
@@ -3386,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>5.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>11</v>
       </c>
@@ -3409,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3432,7 +3147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3455,7 +3170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3478,7 +3193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3497,11 +3212,11 @@
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>14</v>
       </c>
@@ -3520,11 +3235,11 @@
       <c r="G27">
         <v>8</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>15</v>
       </c>
@@ -3543,11 +3258,11 @@
       <c r="G28">
         <v>30</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>15</v>
       </c>
@@ -3566,11 +3281,11 @@
       <c r="G29">
         <v>8</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>16</v>
       </c>
@@ -3589,11 +3304,11 @@
       <c r="G30">
         <v>10</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>17</v>
       </c>
@@ -3613,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
@@ -3636,7 +3351,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>17</v>
       </c>
@@ -3656,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>18</v>
       </c>
@@ -3675,11 +3390,11 @@
       <c r="G34">
         <v>30</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3698,11 +3413,11 @@
       <c r="G35">
         <v>5</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3725,7 +3440,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3745,7 +3460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>20</v>
       </c>
@@ -3768,7 +3483,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>21</v>
       </c>
@@ -3788,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>21</v>
       </c>
@@ -3811,7 +3526,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3834,7 +3549,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>23</v>
       </c>
@@ -3857,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>24</v>
       </c>
@@ -3881,38 +3596,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="33.7109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="18"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="8"/>
-    <col customWidth="1" min="6" max="6" style="3" width="47"/>
-    <col customWidth="1" min="7" max="7" width="7.28515625"/>
-    <col customWidth="1" min="8" max="8" width="45"/>
-    <col customWidth="1" min="9" max="9" width="47.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="39.85546875"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="8"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="3" width="17.85546875"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.265625" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="47.73046875" customWidth="1"/>
+    <col min="10" max="10" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -3950,7 +3666,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3973,7 +3689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3996,7 +3712,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4019,7 +3735,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +3758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4065,7 +3781,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4088,7 +3804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4111,7 +3827,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4134,7 +3850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +3873,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4180,7 +3896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -4203,7 +3919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4226,7 +3942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -4249,7 +3965,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4272,7 +3988,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4295,7 +4011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4318,7 +4034,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -4344,7 +4060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -4370,7 +4086,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -4393,7 +4109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -4416,7 +4132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4439,7 +4155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4462,7 +4178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -4485,7 +4201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -4508,7 +4224,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -4531,7 +4247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +4270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -4577,7 +4293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4600,7 +4316,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4623,7 +4339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -4646,7 +4362,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4669,7 +4385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -4692,7 +4408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -4715,7 +4431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4738,7 +4454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -4761,7 +4477,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4784,7 +4500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -4807,7 +4523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -4830,7 +4546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -4853,7 +4569,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -4876,7 +4592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +4615,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -4922,7 +4638,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -4945,7 +4661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -4968,7 +4684,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4991,7 +4707,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5014,7 +4730,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5037,7 +4753,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -5063,7 +4779,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5089,7 +4805,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -5115,7 +4831,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5138,8 +4854,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5159,7 +4874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -5179,7 +4894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5199,7 +4914,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5219,7 +4934,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -5239,7 +4954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -5259,7 +4974,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5279,7 +4994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5299,7 +5014,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -5319,7 +5034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -5339,7 +5054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5359,7 +5074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5379,7 +5094,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5399,7 +5114,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5419,7 +5134,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5439,7 +5154,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -5459,7 +5174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5479,7 +5194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -5499,7 +5214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -5519,7 +5234,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -5539,7 +5254,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -5559,7 +5274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -5579,7 +5294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -5599,7 +5314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -5619,7 +5334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -5639,7 +5354,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -5659,7 +5374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -5679,7 +5394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -5699,7 +5414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -5719,7 +5434,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -5739,7 +5454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -5759,7 +5474,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -5779,7 +5494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -5799,7 +5514,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -5819,7 +5534,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -5839,7 +5554,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -5859,7 +5574,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -5879,7 +5594,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -5899,7 +5614,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +5634,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -5939,7 +5654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -5959,7 +5674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -5979,7 +5694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -5999,7 +5714,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -6019,7 +5734,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -6039,7 +5754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -6059,7 +5774,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +5794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -6099,7 +5814,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6119,7 +5834,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6139,7 +5854,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6159,8 +5874,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105"/>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -6176,9 +5890,8 @@
       <c r="F106" t="s">
         <v>191</v>
       </c>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -6194,9 +5907,8 @@
       <c r="F107" t="s">
         <v>194</v>
       </c>
-      <c r="I107" s="9"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -6212,9 +5924,8 @@
       <c r="F108" t="s">
         <v>305</v>
       </c>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -6230,9 +5941,8 @@
       <c r="F109" t="s">
         <v>201</v>
       </c>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -6248,9 +5958,8 @@
       <c r="F110" t="s">
         <v>204</v>
       </c>
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -6266,9 +5975,8 @@
       <c r="F111" t="s">
         <v>215</v>
       </c>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -6284,9 +5992,8 @@
       <c r="F112" t="s">
         <v>220</v>
       </c>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -6302,9 +6009,8 @@
       <c r="F113" t="s">
         <v>234</v>
       </c>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -6320,9 +6026,8 @@
       <c r="F114" t="s">
         <v>306</v>
       </c>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -6338,9 +6043,8 @@
       <c r="F115" t="s">
         <v>240</v>
       </c>
-      <c r="I115" s="9"/>
-    </row>
-    <row r="116">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -6356,9 +6060,8 @@
       <c r="F116" t="s">
         <v>243</v>
       </c>
-      <c r="I116" s="9"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -6374,9 +6077,8 @@
       <c r="F117" t="s">
         <v>280</v>
       </c>
-      <c r="I117" s="9"/>
-    </row>
-    <row r="118">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -6392,9 +6094,8 @@
       <c r="F118" t="s">
         <v>286</v>
       </c>
-      <c r="I118" s="9"/>
-    </row>
-    <row r="119">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -6410,13 +6111,11 @@
       <c r="F119" t="s">
         <v>303</v>
       </c>
-      <c r="I119" s="9"/>
-    </row>
-    <row r="120">
-      <c r="F120" s="9"/>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -6429,12 +6128,11 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" t="s">
         <v>309</v>
       </c>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -6447,12 +6145,11 @@
       <c r="E122">
         <v>2</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" t="s">
         <v>310</v>
       </c>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -6465,12 +6162,11 @@
       <c r="E123">
         <v>3</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" t="s">
         <v>311</v>
       </c>
-      <c r="H123" s="9"/>
-    </row>
-    <row r="124">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -6487,7 +6183,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -6504,7 +6200,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -6521,7 +6217,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -6538,7 +6234,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -6555,7 +6251,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -6572,7 +6268,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6285,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6606,7 +6302,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -6623,7 +6319,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -6640,7 +6336,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -6657,7 +6353,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -6674,7 +6370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -6691,7 +6387,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -6708,7 +6404,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -6725,7 +6421,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -6742,7 +6438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -6759,7 +6455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -6776,7 +6472,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -6793,7 +6489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -6806,12 +6502,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" t="s">
         <v>331</v>
       </c>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>82</v>
       </c>
@@ -6824,20 +6519,18 @@
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" t="s">
         <v>332</v>
       </c>
-      <c r="H145" s="9"/>
-    </row>
-    <row r="146">
-      <c r="F146" s="9"/>
-      <c r="H146" s="9"/>
-    </row>
-    <row r="147">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>76</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" t="s">
         <v>75</v>
       </c>
       <c r="D147" t="s">
@@ -6849,13 +6542,12 @@
       <c r="F147" t="s">
         <v>333</v>
       </c>
-      <c r="H147" s="9"/>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>76</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" t="s">
         <v>75</v>
       </c>
       <c r="D148" t="s">
@@ -6864,16 +6556,15 @@
       <c r="E148">
         <v>2</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" t="s">
         <v>334</v>
       </c>
-      <c r="H148" s="9"/>
-    </row>
-    <row r="149">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>76</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" t="s">
         <v>75</v>
       </c>
       <c r="D149" t="s">
@@ -6882,16 +6573,15 @@
       <c r="E149">
         <v>3</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" t="s">
         <v>335</v>
       </c>
-      <c r="H149" s="9"/>
-    </row>
-    <row r="150">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" t="s">
         <v>75</v>
       </c>
       <c r="D150" t="s">
@@ -6900,16 +6590,15 @@
       <c r="E150">
         <v>4</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" t="s">
         <v>336</v>
       </c>
-      <c r="H150" s="9"/>
-    </row>
-    <row r="151">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>76</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" t="s">
         <v>75</v>
       </c>
       <c r="D151" t="s">
@@ -6918,20 +6607,18 @@
       <c r="E151">
         <v>5</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" t="s">
         <v>337</v>
       </c>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152">
-      <c r="F152" s="9"/>
-      <c r="H152" s="9"/>
-    </row>
-    <row r="153">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>92</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" t="s">
         <v>338</v>
       </c>
       <c r="D153" t="s">
@@ -6940,16 +6627,15 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" t="s">
         <v>339</v>
       </c>
-      <c r="H153" s="9"/>
-    </row>
-    <row r="154">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>92</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" t="s">
         <v>338</v>
       </c>
       <c r="D154" t="s">
@@ -6958,16 +6644,15 @@
       <c r="E154">
         <v>2</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" t="s">
         <v>340</v>
       </c>
-      <c r="H154" s="9"/>
-    </row>
-    <row r="155">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>92</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" t="s">
         <v>338</v>
       </c>
       <c r="D155" t="s">
@@ -6976,16 +6661,15 @@
       <c r="E155">
         <v>3</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" t="s">
         <v>341</v>
       </c>
-      <c r="H155" s="9"/>
-    </row>
-    <row r="156">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>92</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" t="s">
         <v>338</v>
       </c>
       <c r="D156" t="s">
@@ -6994,18 +6678,17 @@
       <c r="E156">
         <v>4</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" t="s">
         <v>342</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="157">
-      <c r="F157" s="9"/>
-      <c r="H157" s="9"/>
-    </row>
-    <row r="158">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>100</v>
       </c>
@@ -7018,16 +6701,14 @@
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" t="s">
         <v>344</v>
       </c>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159">
-      <c r="F159" s="9"/>
-      <c r="H159" s="9"/>
-    </row>
-    <row r="160">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -7040,12 +6721,11 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F160" t="s">
         <v>345</v>
       </c>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>113</v>
       </c>
@@ -7058,12 +6738,11 @@
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" t="s">
         <v>346</v>
       </c>
-      <c r="H161" s="9"/>
-    </row>
-    <row r="162">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>113</v>
       </c>
@@ -7076,17 +6755,14 @@
       <c r="E162">
         <v>3</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" t="s">
         <v>347</v>
       </c>
-      <c r="H162" s="9"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="F163" s="9"/>
-    </row>
-    <row r="164">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>53</v>
       </c>
@@ -7106,7 +6782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>134</v>
       </c>
@@ -7123,7 +6799,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>134</v>
       </c>
@@ -7140,7 +6816,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>134</v>
       </c>
@@ -7157,7 +6833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>135</v>
       </c>
@@ -7177,7 +6853,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>135</v>
       </c>
@@ -7197,7 +6873,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>135</v>
       </c>
@@ -7217,7 +6893,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>137</v>
       </c>
@@ -7231,10 +6907,10 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -7248,10 +6924,10 @@
         <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>137</v>
       </c>
@@ -7265,10 +6941,10 @@
         <v>3</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>138</v>
       </c>
@@ -7285,10 +6961,10 @@
         <v>352</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>138</v>
       </c>
@@ -7305,10 +6981,10 @@
         <v>45</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>138</v>
       </c>
@@ -7325,10 +7001,10 @@
         <v>50</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -7342,10 +7018,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>140</v>
       </c>
@@ -7359,10 +7035,10 @@
         <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>141</v>
       </c>
@@ -7379,10 +7055,10 @@
         <v>45</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>141</v>
       </c>
@@ -7399,15 +7075,15 @@
         <v>50</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>143</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
         <v>48</v>
@@ -7416,15 +7092,15 @@
         <v>1</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>143</v>
       </c>
       <c r="B189" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D189" t="s">
         <v>48</v>
@@ -7433,15 +7109,15 @@
         <v>2</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>143</v>
       </c>
       <c r="B190" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D190" t="s">
         <v>48</v>
@@ -7450,15 +7126,15 @@
         <v>3</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>143</v>
       </c>
       <c r="B191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
         <v>48</v>
@@ -7467,15 +7143,15 @@
         <v>4</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>143</v>
       </c>
       <c r="B192" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
         <v>48</v>
@@ -7484,15 +7160,15 @@
         <v>5</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>143</v>
       </c>
       <c r="B193" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D193" t="s">
         <v>48</v>
@@ -7501,15 +7177,15 @@
         <v>6</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>144</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
         <v>60</v>
@@ -7521,15 +7197,15 @@
         <v>352</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>144</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
@@ -7541,15 +7217,15 @@
         <v>45</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>144</v>
       </c>
       <c r="B197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
         <v>60</v>
@@ -7561,15 +7237,15 @@
         <v>50</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>144</v>
       </c>
       <c r="B198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
         <v>60</v>
@@ -7581,15 +7257,15 @@
         <v>54</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>144</v>
       </c>
       <c r="B199" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>
@@ -7601,15 +7277,15 @@
         <v>57</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>144</v>
       </c>
       <c r="B200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D200" t="s">
         <v>60</v>
@@ -7621,15 +7297,15 @@
         <v>61</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>146</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D202" t="s">
         <v>48</v>
@@ -7638,15 +7314,15 @@
         <v>1</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>146</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D203" t="s">
         <v>48</v>
@@ -7655,15 +7331,15 @@
         <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>146</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D204" t="s">
         <v>48</v>
@@ -7672,15 +7348,15 @@
         <v>3</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>146</v>
       </c>
       <c r="B205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D205" t="s">
         <v>48</v>
@@ -7689,15 +7365,15 @@
         <v>4</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>146</v>
       </c>
       <c r="B206" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D206" t="s">
         <v>48</v>
@@ -7706,15 +7382,15 @@
         <v>5</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>146</v>
       </c>
       <c r="B207" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D207" t="s">
         <v>48</v>
@@ -7722,16 +7398,16 @@
       <c r="E207">
         <v>6</v>
       </c>
-      <c r="F207" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="F207" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>147</v>
       </c>
       <c r="B209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D209" t="s">
         <v>60</v>
@@ -7743,15 +7419,15 @@
         <v>352</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>147</v>
       </c>
       <c r="B210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D210" t="s">
         <v>60</v>
@@ -7763,15 +7439,15 @@
         <v>45</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>147</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D211" t="s">
         <v>60</v>
@@ -7783,15 +7459,15 @@
         <v>50</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>147</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D212" t="s">
         <v>60</v>
@@ -7803,15 +7479,15 @@
         <v>54</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>147</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D213" t="s">
         <v>60</v>
@@ -7823,15 +7499,15 @@
         <v>57</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>147</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D214" t="s">
         <v>60</v>
@@ -7842,16 +7518,16 @@
       <c r="F214" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H214" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="H214" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>149</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D216" t="s">
         <v>48</v>
@@ -7863,12 +7539,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>149</v>
       </c>
       <c r="B217" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D217" t="s">
         <v>48</v>
@@ -7880,12 +7556,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>151</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D219" t="s">
         <v>48</v>
@@ -7894,15 +7570,15 @@
         <v>1</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>151</v>
       </c>
       <c r="B220" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D220" t="s">
         <v>48</v>
@@ -7911,15 +7587,15 @@
         <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>151</v>
       </c>
       <c r="B221" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D221" t="s">
         <v>48</v>
@@ -7928,15 +7604,15 @@
         <v>3</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>153</v>
       </c>
       <c r="B223" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D223" t="s">
         <v>48</v>
@@ -7945,15 +7621,15 @@
         <v>1</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>153</v>
       </c>
       <c r="B224" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D224" t="s">
         <v>48</v>
@@ -7962,15 +7638,15 @@
         <v>2</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>153</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D225" t="s">
         <v>48</v>
@@ -7979,15 +7655,15 @@
         <v>3</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>153</v>
       </c>
       <c r="B226" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D226" t="s">
         <v>48</v>
@@ -7996,15 +7672,15 @@
         <v>4</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>153</v>
       </c>
       <c r="B227" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D227" t="s">
         <v>48</v>
@@ -8013,15 +7689,15 @@
         <v>5</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D229" t="s">
         <v>48</v>
@@ -8030,15 +7706,15 @@
         <v>1</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>158</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D230" t="s">
         <v>48</v>
@@ -8047,15 +7723,15 @@
         <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>158</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D231" t="s">
         <v>48</v>
@@ -8064,15 +7740,15 @@
         <v>3</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>160</v>
       </c>
       <c r="B233" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D233" t="s">
         <v>48</v>
@@ -8081,15 +7757,15 @@
         <v>1</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>160</v>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D234" t="s">
         <v>48</v>
@@ -8098,15 +7774,15 @@
         <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>160</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D235" t="s">
         <v>48</v>
@@ -8115,15 +7791,15 @@
         <v>3</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>160</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D236" t="s">
         <v>48</v>
@@ -8135,1444 +7811,1232 @@
         <v>345</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="9" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
         <v>162</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" t="s">
+        <v>389</v>
+      </c>
+      <c r="D238" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
         <v>390</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E238" s="9">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>162</v>
+      </c>
+      <c r="B239" t="s">
+        <v>389</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
         <v>1</v>
       </c>
-      <c r="F238" s="9" t="s">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" t="s">
+        <v>389</v>
+      </c>
+      <c r="D240" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" t="s">
+        <v>389</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" t="s">
+        <v>48</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>162</v>
+      </c>
+      <c r="B243" t="s">
+        <v>389</v>
+      </c>
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243">
+        <v>6</v>
+      </c>
+      <c r="F243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>162</v>
+      </c>
+      <c r="B244" t="s">
+        <v>389</v>
+      </c>
+      <c r="D244" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>162</v>
+      </c>
+      <c r="B245" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>162</v>
+      </c>
+      <c r="B246" t="s">
+        <v>389</v>
+      </c>
+      <c r="D246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246">
+        <v>9</v>
+      </c>
+      <c r="F246">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>162</v>
+      </c>
+      <c r="B247" t="s">
+        <v>389</v>
+      </c>
+      <c r="D247" t="s">
+        <v>48</v>
+      </c>
+      <c r="E247">
+        <v>10</v>
+      </c>
+      <c r="F247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>162</v>
+      </c>
+      <c r="B248" t="s">
+        <v>389</v>
+      </c>
+      <c r="D248" t="s">
+        <v>48</v>
+      </c>
+      <c r="E248">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s">
         <v>391</v>
       </c>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B239" s="9" t="s">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>163</v>
+      </c>
+      <c r="B250" t="s">
+        <v>389</v>
+      </c>
+      <c r="D250" t="s">
+        <v>60</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
         <v>390</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E239" s="9">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>163</v>
+      </c>
+      <c r="B251" t="s">
+        <v>389</v>
+      </c>
+      <c r="D251" t="s">
+        <v>60</v>
+      </c>
+      <c r="E251">
         <v>2</v>
       </c>
-      <c r="F239" s="9">
+      <c r="F251">
         <v>1</v>
       </c>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E240" s="9">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>163</v>
+      </c>
+      <c r="B252" t="s">
+        <v>389</v>
+      </c>
+      <c r="D252" t="s">
+        <v>60</v>
+      </c>
+      <c r="E252">
         <v>3</v>
       </c>
-      <c r="F240" s="9">
+      <c r="F252">
         <v>2</v>
       </c>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E241" s="9">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>163</v>
+      </c>
+      <c r="B253" t="s">
+        <v>389</v>
+      </c>
+      <c r="D253" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253">
         <v>4</v>
       </c>
-      <c r="F241" s="9">
+      <c r="F253">
         <v>3</v>
       </c>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E242" s="9">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>163</v>
+      </c>
+      <c r="B254" t="s">
+        <v>389</v>
+      </c>
+      <c r="D254" t="s">
+        <v>60</v>
+      </c>
+      <c r="E254">
         <v>5</v>
       </c>
-      <c r="F242" s="9">
+      <c r="F254">
         <v>4</v>
       </c>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E243" s="9">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>163</v>
+      </c>
+      <c r="B255" t="s">
+        <v>389</v>
+      </c>
+      <c r="D255" t="s">
+        <v>60</v>
+      </c>
+      <c r="E255">
         <v>6</v>
       </c>
-      <c r="F243" s="9">
+      <c r="F255">
         <v>5</v>
       </c>
-      <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E244" s="9">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>163</v>
+      </c>
+      <c r="B256" t="s">
+        <v>389</v>
+      </c>
+      <c r="D256" t="s">
+        <v>60</v>
+      </c>
+      <c r="E256">
         <v>7</v>
       </c>
-      <c r="F244" s="9">
+      <c r="F256">
         <v>6</v>
       </c>
-      <c r="G244" s="9"/>
-      <c r="H244" s="9"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E245" s="9">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>163</v>
+      </c>
+      <c r="B257" t="s">
+        <v>389</v>
+      </c>
+      <c r="D257" t="s">
+        <v>60</v>
+      </c>
+      <c r="E257">
         <v>8</v>
       </c>
-      <c r="F245" s="9">
+      <c r="F257">
         <v>7</v>
       </c>
-      <c r="G245" s="9"/>
-      <c r="H245" s="9"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E246" s="9">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B258" t="s">
+        <v>389</v>
+      </c>
+      <c r="D258" t="s">
+        <v>60</v>
+      </c>
+      <c r="E258">
         <v>9</v>
       </c>
-      <c r="F246" s="9">
+      <c r="F258">
         <v>8</v>
       </c>
-      <c r="G246" s="9"/>
-      <c r="H246" s="9"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E247" s="9">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>163</v>
+      </c>
+      <c r="B259" t="s">
+        <v>389</v>
+      </c>
+      <c r="D259" t="s">
+        <v>60</v>
+      </c>
+      <c r="E259">
         <v>10</v>
       </c>
-      <c r="F247" s="9">
+      <c r="F259">
         <v>9</v>
       </c>
-      <c r="G247" s="9"/>
-      <c r="H247" s="9"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E248" s="9">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>163</v>
+      </c>
+      <c r="B260" t="s">
+        <v>389</v>
+      </c>
+      <c r="D260" t="s">
+        <v>60</v>
+      </c>
+      <c r="E260">
         <v>11</v>
       </c>
-      <c r="F248" s="9" t="s">
+      <c r="F260">
+        <v>10</v>
+      </c>
+      <c r="H260" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>165</v>
+      </c>
+      <c r="B262" t="s">
         <v>392</v>
       </c>
-      <c r="G248" s="9"/>
-      <c r="H248" s="9"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9" t="s">
+      <c r="D262" t="s">
+        <v>48</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>165</v>
+      </c>
+      <c r="B263" t="s">
+        <v>392</v>
+      </c>
+      <c r="D263" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>165</v>
+      </c>
+      <c r="B264" t="s">
+        <v>392</v>
+      </c>
+      <c r="D264" t="s">
+        <v>48</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>165</v>
+      </c>
+      <c r="B265" t="s">
+        <v>392</v>
+      </c>
+      <c r="D265" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>165</v>
+      </c>
+      <c r="B266" t="s">
+        <v>392</v>
+      </c>
+      <c r="D266" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>165</v>
+      </c>
+      <c r="B267" t="s">
+        <v>392</v>
+      </c>
+      <c r="D267" t="s">
+        <v>48</v>
+      </c>
+      <c r="E267">
+        <v>6</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>165</v>
+      </c>
+      <c r="B268" t="s">
+        <v>392</v>
+      </c>
+      <c r="D268" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268">
+        <v>7</v>
+      </c>
+      <c r="F268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>165</v>
+      </c>
+      <c r="B269" t="s">
+        <v>392</v>
+      </c>
+      <c r="D269" t="s">
+        <v>48</v>
+      </c>
+      <c r="E269">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>165</v>
+      </c>
+      <c r="B270" t="s">
+        <v>392</v>
+      </c>
+      <c r="D270" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270">
+        <v>9</v>
+      </c>
+      <c r="F270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>165</v>
+      </c>
+      <c r="B271" t="s">
+        <v>392</v>
+      </c>
+      <c r="D271" t="s">
+        <v>48</v>
+      </c>
+      <c r="E271">
+        <v>10</v>
+      </c>
+      <c r="F271">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>165</v>
+      </c>
+      <c r="B272" t="s">
+        <v>392</v>
+      </c>
+      <c r="D272" t="s">
+        <v>48</v>
+      </c>
+      <c r="E272">
+        <v>11</v>
+      </c>
+      <c r="F272" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>166</v>
+      </c>
+      <c r="B274" t="s">
+        <v>392</v>
+      </c>
+      <c r="D274" t="s">
         <v>60</v>
       </c>
-      <c r="E250" s="9">
+      <c r="E274">
         <v>1</v>
       </c>
-      <c r="F250" s="9">
+      <c r="F274">
         <v>0</v>
       </c>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9" t="s">
+      <c r="H274" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>166</v>
+      </c>
+      <c r="B275" t="s">
+        <v>392</v>
+      </c>
+      <c r="D275" t="s">
         <v>60</v>
       </c>
-      <c r="E251" s="9">
+      <c r="E275">
         <v>2</v>
       </c>
-      <c r="F251" s="9">
+      <c r="F275">
         <v>1</v>
       </c>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9" t="s">
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>166</v>
+      </c>
+      <c r="B276" t="s">
+        <v>392</v>
+      </c>
+      <c r="D276" t="s">
         <v>60</v>
       </c>
-      <c r="E252" s="9">
+      <c r="E276">
         <v>3</v>
       </c>
-      <c r="F252" s="9">
+      <c r="F276">
         <v>2</v>
       </c>
-      <c r="G252" s="9"/>
-      <c r="H252" s="9"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9" t="s">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>166</v>
+      </c>
+      <c r="B277" t="s">
+        <v>392</v>
+      </c>
+      <c r="D277" t="s">
         <v>60</v>
       </c>
-      <c r="E253" s="9">
+      <c r="E277">
         <v>4</v>
       </c>
-      <c r="F253" s="9">
+      <c r="F277">
         <v>3</v>
       </c>
-      <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9" t="s">
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>166</v>
+      </c>
+      <c r="B278" t="s">
+        <v>392</v>
+      </c>
+      <c r="D278" t="s">
         <v>60</v>
       </c>
-      <c r="E254" s="9">
+      <c r="E278">
         <v>5</v>
       </c>
-      <c r="F254" s="9">
+      <c r="F278">
         <v>4</v>
       </c>
-      <c r="G254" s="9"/>
-      <c r="H254" s="9"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9" t="s">
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>166</v>
+      </c>
+      <c r="B279" t="s">
+        <v>392</v>
+      </c>
+      <c r="D279" t="s">
         <v>60</v>
       </c>
-      <c r="E255" s="9">
+      <c r="E279">
         <v>6</v>
       </c>
-      <c r="F255" s="9">
+      <c r="F279">
         <v>5</v>
       </c>
-      <c r="G255" s="9"/>
-      <c r="H255" s="9"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9" t="s">
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>166</v>
+      </c>
+      <c r="B280" t="s">
+        <v>392</v>
+      </c>
+      <c r="D280" t="s">
         <v>60</v>
       </c>
-      <c r="E256" s="9">
+      <c r="E280">
         <v>7</v>
       </c>
-      <c r="F256" s="9">
+      <c r="F280">
         <v>6</v>
       </c>
-      <c r="G256" s="9"/>
-      <c r="H256" s="9"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9" t="s">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>166</v>
+      </c>
+      <c r="B281" t="s">
+        <v>392</v>
+      </c>
+      <c r="D281" t="s">
         <v>60</v>
       </c>
-      <c r="E257" s="9">
+      <c r="E281">
         <v>8</v>
       </c>
-      <c r="F257" s="9">
+      <c r="F281">
         <v>7</v>
       </c>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9" t="s">
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>166</v>
+      </c>
+      <c r="B282" t="s">
+        <v>392</v>
+      </c>
+      <c r="D282" t="s">
         <v>60</v>
       </c>
-      <c r="E258" s="9">
+      <c r="E282">
         <v>9</v>
       </c>
-      <c r="F258" s="9">
+      <c r="F282">
         <v>8</v>
       </c>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9" t="s">
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>166</v>
+      </c>
+      <c r="B283" t="s">
+        <v>392</v>
+      </c>
+      <c r="D283" t="s">
         <v>60</v>
       </c>
-      <c r="E259" s="9">
+      <c r="E283">
         <v>10</v>
       </c>
-      <c r="F259" s="9">
+      <c r="F283">
         <v>9</v>
       </c>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9" t="s">
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>166</v>
+      </c>
+      <c r="B284" t="s">
+        <v>392</v>
+      </c>
+      <c r="D284" t="s">
         <v>60</v>
       </c>
-      <c r="E260" s="9">
+      <c r="E284">
         <v>11</v>
       </c>
-      <c r="F260" s="9">
+      <c r="F284">
         <v>10</v>
       </c>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E262" s="9">
+      <c r="H284" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>171</v>
+      </c>
+      <c r="B286" t="s">
+        <v>389</v>
+      </c>
+      <c r="D286" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286">
         <v>1</v>
       </c>
-      <c r="F262" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E263" s="9">
+      <c r="F286" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>171</v>
+      </c>
+      <c r="B287" t="s">
+        <v>389</v>
+      </c>
+      <c r="D287" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287">
         <v>2</v>
       </c>
-      <c r="F263" s="9">
+      <c r="F287">
         <v>1</v>
       </c>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E264" s="9">
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>171</v>
+      </c>
+      <c r="B288" t="s">
+        <v>389</v>
+      </c>
+      <c r="D288" t="s">
+        <v>48</v>
+      </c>
+      <c r="E288">
         <v>3</v>
       </c>
-      <c r="F264" s="9">
+      <c r="F288">
         <v>2</v>
       </c>
-      <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E265" s="9">
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>171</v>
+      </c>
+      <c r="B289" t="s">
+        <v>389</v>
+      </c>
+      <c r="D289" t="s">
+        <v>48</v>
+      </c>
+      <c r="E289">
         <v>4</v>
       </c>
-      <c r="F265" s="9">
+      <c r="F289">
         <v>3</v>
       </c>
-      <c r="G265" s="9"/>
-      <c r="H265" s="9"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E266" s="9">
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>171</v>
+      </c>
+      <c r="B290" t="s">
+        <v>389</v>
+      </c>
+      <c r="D290" t="s">
+        <v>48</v>
+      </c>
+      <c r="E290">
         <v>5</v>
       </c>
-      <c r="F266" s="9">
+      <c r="F290">
         <v>4</v>
       </c>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E267" s="9">
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>171</v>
+      </c>
+      <c r="B291" t="s">
+        <v>389</v>
+      </c>
+      <c r="D291" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291">
         <v>6</v>
       </c>
-      <c r="F267" s="9">
+      <c r="F291">
         <v>5</v>
       </c>
-      <c r="G267" s="9"/>
-      <c r="H267" s="9"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E268" s="9">
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>171</v>
+      </c>
+      <c r="B292" t="s">
+        <v>389</v>
+      </c>
+      <c r="D292" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292">
         <v>7</v>
       </c>
-      <c r="F268" s="9">
+      <c r="F292">
         <v>6</v>
       </c>
-      <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="9">
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>171</v>
+      </c>
+      <c r="B293" t="s">
+        <v>389</v>
+      </c>
+      <c r="D293" t="s">
+        <v>48</v>
+      </c>
+      <c r="E293">
         <v>8</v>
       </c>
-      <c r="F269" s="9">
+      <c r="F293">
         <v>7</v>
       </c>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="9">
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>171</v>
+      </c>
+      <c r="B294" t="s">
+        <v>389</v>
+      </c>
+      <c r="D294" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294">
         <v>9</v>
       </c>
-      <c r="F270" s="9">
+      <c r="F294">
         <v>8</v>
       </c>
-      <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E271" s="9">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>171</v>
+      </c>
+      <c r="B295" t="s">
+        <v>389</v>
+      </c>
+      <c r="D295" t="s">
+        <v>48</v>
+      </c>
+      <c r="E295">
         <v>10</v>
       </c>
-      <c r="F271" s="9">
+      <c r="F295">
         <v>9</v>
       </c>
-      <c r="G271" s="9"/>
-      <c r="H271" s="9"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E272" s="9">
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>171</v>
+      </c>
+      <c r="B296" t="s">
+        <v>389</v>
+      </c>
+      <c r="D296" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296">
         <v>11</v>
       </c>
-      <c r="F272" s="9" t="s">
+      <c r="F296" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>172</v>
+      </c>
+      <c r="B298" t="s">
+        <v>389</v>
+      </c>
+      <c r="D298" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="H298" t="s">
         <v>395</v>
       </c>
-      <c r="G272" s="9"/>
-      <c r="H272" s="9"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="9"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9" t="s">
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>172</v>
+      </c>
+      <c r="B299" t="s">
+        <v>389</v>
+      </c>
+      <c r="D299" t="s">
         <v>60</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
         <v>1</v>
       </c>
-      <c r="F274" s="9">
-        <v>0</v>
-      </c>
-      <c r="G274" s="9"/>
-      <c r="H274" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9" t="s">
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>172</v>
+      </c>
+      <c r="B300" t="s">
+        <v>389</v>
+      </c>
+      <c r="D300" t="s">
         <v>60</v>
       </c>
-      <c r="E275" s="9">
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
         <v>2</v>
       </c>
-      <c r="F275" s="9">
-        <v>1</v>
-      </c>
-      <c r="G275" s="9"/>
-      <c r="H275" s="9"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9" t="s">
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>172</v>
+      </c>
+      <c r="B301" t="s">
+        <v>389</v>
+      </c>
+      <c r="D301" t="s">
         <v>60</v>
       </c>
-      <c r="E276" s="9">
+      <c r="E301">
+        <v>4</v>
+      </c>
+      <c r="F301">
         <v>3</v>
       </c>
-      <c r="F276" s="9">
-        <v>2</v>
-      </c>
-      <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9" t="s">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>172</v>
+      </c>
+      <c r="B302" t="s">
+        <v>389</v>
+      </c>
+      <c r="D302" t="s">
         <v>60</v>
       </c>
-      <c r="E277" s="9">
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
         <v>4</v>
       </c>
-      <c r="F277" s="9">
-        <v>3</v>
-      </c>
-      <c r="G277" s="9"/>
-      <c r="H277" s="9"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9" t="s">
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>172</v>
+      </c>
+      <c r="B303" t="s">
+        <v>389</v>
+      </c>
+      <c r="D303" t="s">
         <v>60</v>
       </c>
-      <c r="E278" s="9">
+      <c r="E303">
+        <v>6</v>
+      </c>
+      <c r="F303">
         <v>5</v>
       </c>
-      <c r="F278" s="9">
-        <v>4</v>
-      </c>
-      <c r="G278" s="9"/>
-      <c r="H278" s="9"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9" t="s">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>172</v>
+      </c>
+      <c r="B304" t="s">
+        <v>389</v>
+      </c>
+      <c r="D304" t="s">
         <v>60</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E304">
+        <v>7</v>
+      </c>
+      <c r="F304">
         <v>6</v>
       </c>
-      <c r="F279" s="9">
-        <v>5</v>
-      </c>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9" t="s">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>172</v>
+      </c>
+      <c r="B305" t="s">
+        <v>389</v>
+      </c>
+      <c r="D305" t="s">
         <v>60</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E305">
+        <v>8</v>
+      </c>
+      <c r="F305">
         <v>7</v>
       </c>
-      <c r="F280" s="9">
-        <v>6</v>
-      </c>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9" t="s">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>172</v>
+      </c>
+      <c r="B306" t="s">
+        <v>389</v>
+      </c>
+      <c r="D306" t="s">
         <v>60</v>
       </c>
-      <c r="E281" s="9">
+      <c r="E306">
+        <v>9</v>
+      </c>
+      <c r="F306">
         <v>8</v>
       </c>
-      <c r="F281" s="9">
-        <v>7</v>
-      </c>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9" t="s">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>172</v>
+      </c>
+      <c r="B307" t="s">
+        <v>389</v>
+      </c>
+      <c r="D307" t="s">
         <v>60</v>
       </c>
-      <c r="E282" s="9">
+      <c r="E307">
+        <v>10</v>
+      </c>
+      <c r="F307">
         <v>9</v>
       </c>
-      <c r="F282" s="9">
-        <v>8</v>
-      </c>
-      <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9" t="s">
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>172</v>
+      </c>
+      <c r="B308" t="s">
+        <v>389</v>
+      </c>
+      <c r="D308" t="s">
         <v>60</v>
       </c>
-      <c r="E283" s="9">
+      <c r="E308">
+        <v>11</v>
+      </c>
+      <c r="F308">
         <v>10</v>
       </c>
-      <c r="F283" s="9">
-        <v>9</v>
-      </c>
-      <c r="G283" s="9"/>
-      <c r="H283" s="9"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E284" s="9">
-        <v>11</v>
-      </c>
-      <c r="F284" s="9">
-        <v>10</v>
-      </c>
-      <c r="G284" s="9"/>
-      <c r="H284" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E286" s="9">
-        <v>1</v>
-      </c>
-      <c r="F286" s="9" t="s">
+      <c r="H308" t="s">
         <v>396</v>
       </c>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E287" s="9">
-        <v>2</v>
-      </c>
-      <c r="F287" s="9">
-        <v>1</v>
-      </c>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E288" s="9">
-        <v>3</v>
-      </c>
-      <c r="F288" s="9">
-        <v>2</v>
-      </c>
-      <c r="G288" s="9"/>
-      <c r="H288" s="9"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E289" s="9">
-        <v>4</v>
-      </c>
-      <c r="F289" s="9">
-        <v>3</v>
-      </c>
-      <c r="G289" s="9"/>
-      <c r="H289" s="9"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E290" s="9">
-        <v>5</v>
-      </c>
-      <c r="F290" s="9">
-        <v>4</v>
-      </c>
-      <c r="G290" s="9"/>
-      <c r="H290" s="9"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E291" s="9">
-        <v>6</v>
-      </c>
-      <c r="F291" s="9">
-        <v>5</v>
-      </c>
-      <c r="G291" s="9"/>
-      <c r="H291" s="9"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="9">
-        <v>7</v>
-      </c>
-      <c r="F292" s="9">
-        <v>6</v>
-      </c>
-      <c r="G292" s="9"/>
-      <c r="H292" s="9"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E293" s="9">
-        <v>8</v>
-      </c>
-      <c r="F293" s="9">
-        <v>7</v>
-      </c>
-      <c r="G293" s="9"/>
-      <c r="H293" s="9"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" s="9">
-        <v>9</v>
-      </c>
-      <c r="F294" s="9">
-        <v>8</v>
-      </c>
-      <c r="G294" s="9"/>
-      <c r="H294" s="9"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E295" s="9">
-        <v>10</v>
-      </c>
-      <c r="F295" s="9">
-        <v>9</v>
-      </c>
-      <c r="G295" s="9"/>
-      <c r="H295" s="9"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E296" s="9">
-        <v>11</v>
-      </c>
-      <c r="F296" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G296" s="9"/>
-      <c r="H296" s="9"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E298" s="9">
-        <v>1</v>
-      </c>
-      <c r="F298" s="9">
-        <v>0</v>
-      </c>
-      <c r="G298" s="9"/>
-      <c r="H298" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E299" s="9">
-        <v>2</v>
-      </c>
-      <c r="F299" s="9">
-        <v>1</v>
-      </c>
-      <c r="G299" s="9"/>
-      <c r="H299" s="9"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E300" s="9">
-        <v>3</v>
-      </c>
-      <c r="F300" s="9">
-        <v>2</v>
-      </c>
-      <c r="G300" s="9"/>
-      <c r="H300" s="9"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E301" s="9">
-        <v>4</v>
-      </c>
-      <c r="F301" s="9">
-        <v>3</v>
-      </c>
-      <c r="G301" s="9"/>
-      <c r="H301" s="9"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E302" s="9">
-        <v>5</v>
-      </c>
-      <c r="F302" s="9">
-        <v>4</v>
-      </c>
-      <c r="G302" s="9"/>
-      <c r="H302" s="9"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E303" s="9">
-        <v>6</v>
-      </c>
-      <c r="F303" s="9">
-        <v>5</v>
-      </c>
-      <c r="G303" s="9"/>
-      <c r="H303" s="9"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E304" s="9">
-        <v>7</v>
-      </c>
-      <c r="F304" s="9">
-        <v>6</v>
-      </c>
-      <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B305" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E305" s="9">
-        <v>8</v>
-      </c>
-      <c r="F305" s="9">
-        <v>7</v>
-      </c>
-      <c r="G305" s="9"/>
-      <c r="H305" s="9"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E306" s="9">
-        <v>9</v>
-      </c>
-      <c r="F306" s="9">
-        <v>8</v>
-      </c>
-      <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E307" s="9">
-        <v>10</v>
-      </c>
-      <c r="F307" s="9">
-        <v>9</v>
-      </c>
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E308" s="9">
-        <v>11</v>
-      </c>
-      <c r="F308" s="9">
-        <v>10</v>
-      </c>
-      <c r="G308" s="9"/>
-      <c r="H308" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="310">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>168</v>
       </c>
-      <c r="B310" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E310" s="9">
+      <c r="B310" t="s">
+        <v>397</v>
+      </c>
+      <c r="D310" t="s">
+        <v>48</v>
+      </c>
+      <c r="E310">
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>168</v>
       </c>
-      <c r="B311" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E311" s="9">
+      <c r="B311" t="s">
+        <v>397</v>
+      </c>
+      <c r="D311" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311">
         <v>2</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>168</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" t="s">
+        <v>397</v>
+      </c>
+      <c r="D312" t="s">
+        <v>48</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+      <c r="F312" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D312" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E312" s="9">
-        <v>3</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>399</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I147"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:I147" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="25.42578125"/>
-    <col customWidth="1" min="3" max="5" width="15.42578125"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="5" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -9583,39 +9047,39 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>401</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.42578125"/>
-    <col customWidth="1" min="2" max="2" width="15.42578125"/>
-    <col customWidth="1" min="3" max="3" width="17.42578125"/>
-    <col customWidth="1" min="4" max="4" width="15.42578125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="61.42578125"/>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -9626,13 +9090,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -9643,13 +9107,13 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9660,13 +9124,13 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -9677,13 +9141,13 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -9694,13 +9158,13 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -9711,13 +9175,13 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" ht="42.75">
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -9728,13 +9192,13 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -9745,13 +9209,13 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -9762,13 +9226,13 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -9779,13 +9243,13 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -9796,13 +9260,13 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -9813,13 +9277,13 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -9830,13 +9294,13 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -9847,13 +9311,13 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -9864,13 +9328,13 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -9881,13 +9345,13 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -9897,14 +9361,14 @@
       <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>403</v>
+      <c r="D17" t="s">
+        <v>402</v>
       </c>
       <c r="E17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -9915,13 +9379,13 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -9932,13 +9396,13 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -9949,13 +9413,13 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -9966,13 +9430,13 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -9983,13 +9447,13 @@
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -10000,13 +9464,13 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="24" ht="128.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -10017,13 +9481,13 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" ht="57">
+        <v>403</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -10034,42 +9498,41 @@
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>415</v>
+        <v>403</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="25.42578125"/>
-    <col customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col customWidth="1" min="4" max="4" width="46.85546875"/>
-    <col customWidth="1" min="5" max="5" width="18.7109375"/>
-    <col customWidth="1" min="6" max="6" width="15.42578125"/>
-    <col customWidth="1" min="7" max="7" width="19.42578125"/>
-    <col customWidth="1" min="8" max="8" width="11.7109375"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="46.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -10077,49 +9540,48 @@
         <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
-    <col customWidth="1" min="3" max="4" width="19.42578125"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
+    <col min="3" max="4" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -10127,22 +9589,47 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de74a017-5862-4229-b645-fe47ad4ea8f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9">
+      <UserInfo>
+        <DisplayName>Anstrom, Kevin Joseph</DisplayName>
+        <AccountId>314</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100133AC6754998794EB244644CDAF56CA7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="581f237a91a330d020d2e6bb45c19f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de74a017-5862-4229-b645-fe47ad4ea8f2" xmlns:ns3="d75b2525-1797-4e37-90e4-5bb561c6f6d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922ac6b8c412e9d6b92bfa8a5d4025cf" ns2:_="" ns3:_="">
     <xsd:import namespace="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
@@ -10385,41 +9872,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de74a017-5862-4229-b645-fe47ad4ea8f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9">
-      <UserInfo>
-        <DisplayName>Anstrom, Kevin Joseph</DisplayName>
-        <AccountId>314</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964713FE-3741-4FF9-AF9F-D278E3D5F379}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D37C17F-EF16-459F-9733-1EF03C68BEBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BDE4B5-03B8-467E-A500-2B9ABD58995E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BDE4B5-03B8-467E-A500-2B9ABD58995E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d75b2525-1797-4e37-90e4-5bb561c6f6d9"/>
+    <ds:schemaRef ds:uri="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D37C17F-EF16-459F-9733-1EF03C68BEBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964713FE-3741-4FF9-AF9F-D278E3D5F379}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
+    <ds:schemaRef ds:uri="d75b2525-1797-4e37-90e4-5bb561c6f6d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/reval/package-data/STDSPECS_FT_Combined_FTDataset_3.21.23.xlsx
+++ b/reval/package-data/STDSPECS_FT_Combined_FTDataset_3.21.23.xlsx
@@ -1,46 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE7C24-7712-43EC-8808-964CCD795007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Study" sheetId="1" state="visible" r:id="rId4"/>
-    <sheet name="Datasets" sheetId="2" state="visible" r:id="rId5"/>
-    <sheet name="Variables" sheetId="3" state="visible" r:id="rId6"/>
-    <sheet name="ValueLevel" sheetId="4" state="visible" r:id="rId7"/>
-    <sheet name="Codelists" sheetId="5" state="visible" r:id="rId8"/>
-    <sheet name="Dictionaries" sheetId="6" state="visible" r:id="rId9"/>
-    <sheet name="WhereClauses" sheetId="7" state="visible" r:id="rId10"/>
-    <sheet name="Methods" sheetId="8" state="visible" r:id="rId11"/>
-    <sheet name="Comments" sheetId="9" state="visible" r:id="rId12"/>
-    <sheet name="Documents" sheetId="10" state="visible" r:id="rId13"/>
+    <sheet name="Study" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="ValueLevel" sheetId="4" r:id="rId4"/>
+    <sheet name="Codelists" sheetId="5" r:id="rId5"/>
+    <sheet name="Dictionaries" sheetId="6" r:id="rId6"/>
+    <sheet name="WhereClauses" sheetId="7" r:id="rId7"/>
+    <sheet name="Methods" sheetId="8" r:id="rId8"/>
+    <sheet name="Comments" sheetId="9" r:id="rId9"/>
+    <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WhereClauses!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Codelists!$A$1:$I$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dictionaries!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WhereClauses!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="422">
   <si>
     <t>Attribute</t>
   </si>
@@ -51,31 +50,31 @@
     <t>StudyName</t>
   </si>
   <si>
-    <t xml:space="preserve">BACPAC Research Consortium</t>
+    <t>BACPAC Research Consortium</t>
   </si>
   <si>
     <t>StudyDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Observational Study</t>
+    <t>Observational Study</t>
   </si>
   <si>
     <t>ProtocolName</t>
   </si>
   <si>
-    <t xml:space="preserve">FT Domain Example</t>
+    <t>FT Domain Example</t>
   </si>
   <si>
     <t>StandardName</t>
   </si>
   <si>
-    <t xml:space="preserve">BACPAC Modified SDTM Standard</t>
+    <t>BACPAC Modified SDTM Standard</t>
   </si>
   <si>
     <t>StandardVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 (Modified)</t>
+    <t>3.1.2 (Modified)</t>
   </si>
   <si>
     <t>Language</t>
@@ -99,13 +98,13 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Key Variables</t>
+    <t>Key Variables</t>
   </si>
   <si>
     <t>Repeating</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference Data</t>
+    <t>Reference Data</t>
   </si>
   <si>
     <t>Comment</t>
@@ -114,19 +113,19 @@
     <t>FT</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Tests</t>
+    <t>Functional Tests</t>
   </si>
   <si>
     <t>Findings</t>
   </si>
   <si>
-    <t xml:space="preserve">One record per Functional Test finding per time point per visit per subject</t>
+    <t>One record per Functional Test finding per time point per visit per subject</t>
   </si>
   <si>
     <t>Tabulation</t>
   </si>
   <si>
-    <t xml:space="preserve">STUDYID, USUBJID, TESTCD, VISITNUM, FTPOS, FTLAT, FTREPNUM</t>
+    <t>STUDYID, USUBJID, TESTCD, VISITNUM, FTPOS, FTLAT, FTREPNUM</t>
   </si>
   <si>
     <t>Yes</t>
@@ -144,13 +143,13 @@
     <t>Label</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Type</t>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Length</t>
   </si>
   <si>
-    <t xml:space="preserve">Significant Digits</t>
+    <t>Significant Digits</t>
   </si>
   <si>
     <t>Format</t>
@@ -183,7 +182,7 @@
     <t>STUDYID</t>
   </si>
   <si>
-    <t xml:space="preserve">Study Identifier</t>
+    <t>Study Identifier</t>
   </si>
   <si>
     <t>text</t>
@@ -198,7 +197,7 @@
     <t>DOMAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain Abbreviation</t>
+    <t>Domain Abbreviation</t>
   </si>
   <si>
     <t>FTDOMAIN</t>
@@ -210,7 +209,7 @@
     <t>USUBJID</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique Subject Identifier</t>
+    <t>Unique Subject Identifier</t>
   </si>
   <si>
     <t>4</t>
@@ -219,7 +218,7 @@
     <t>FTSEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequence Number</t>
+    <t>Sequence Number</t>
   </si>
   <si>
     <t>integer</t>
@@ -231,7 +230,7 @@
     <t>FTTESTCD</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name of Test</t>
+    <t>Short Name of Test</t>
   </si>
   <si>
     <t>Timing</t>
@@ -243,10 +242,10 @@
     <t>FTTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synonym Qualifier</t>
+    <t>Name of Test</t>
+  </si>
+  <si>
+    <t>Synonym Qualifier</t>
   </si>
   <si>
     <t>7</t>
@@ -258,7 +257,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Grouping Qualifier</t>
+    <t>Grouping Qualifier</t>
   </si>
   <si>
     <t>8</t>
@@ -267,13 +266,13 @@
     <t>FTPOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Position of Subject During Observation</t>
+    <t>Position of Subject During Observation</t>
   </si>
   <si>
     <t>POSITION</t>
   </si>
   <si>
-    <t xml:space="preserve">Record Qualifier</t>
+    <t>Record Qualifier</t>
   </si>
   <si>
     <t>9</t>
@@ -282,7 +281,7 @@
     <t>FTLOC</t>
   </si>
   <si>
-    <t xml:space="preserve">Location Used for the Measurement</t>
+    <t>Location Used for the Measurement</t>
   </si>
   <si>
     <t>10</t>
@@ -294,7 +293,7 @@
     <t>Laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable Qualifier</t>
+    <t>Variable Qualifier</t>
   </si>
   <si>
     <t>11</t>
@@ -303,10 +302,10 @@
     <t>FTSTRESC</t>
   </si>
   <si>
-    <t xml:space="preserve">Result or Finding in Standard Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Qualifier</t>
+    <t>Result or Finding in Standard Format</t>
+  </si>
+  <si>
+    <t>Result Qualifier</t>
   </si>
   <si>
     <t>12</t>
@@ -315,7 +314,7 @@
     <t>FTSTRESU</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard Units</t>
+    <t>Standard Units</t>
   </si>
   <si>
     <t>UNIT</t>
@@ -327,7 +326,7 @@
     <t>FTSTRESN</t>
   </si>
   <si>
-    <t xml:space="preserve">Numeric Result/Finding in Standard Units</t>
+    <t>Numeric Result/Finding in Standard Units</t>
   </si>
   <si>
     <t>float</t>
@@ -339,7 +338,7 @@
     <t>FTSTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Completion Status</t>
+    <t>Completion Status</t>
   </si>
   <si>
     <t>ND</t>
@@ -351,7 +350,7 @@
     <t>FTREASND</t>
   </si>
   <si>
-    <t xml:space="preserve">Reason Not Done</t>
+    <t>Reason Not Done</t>
   </si>
   <si>
     <t>16</t>
@@ -360,7 +359,7 @@
     <t>FTDRVFL</t>
   </si>
   <si>
-    <t xml:space="preserve">Derived Flag</t>
+    <t>Derived Flag</t>
   </si>
   <si>
     <t>17</t>
@@ -369,7 +368,7 @@
     <t>FTREPNUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Repetition Number</t>
+    <t>Repetition Number</t>
   </si>
   <si>
     <t>18</t>
@@ -378,13 +377,13 @@
     <t>FTAID</t>
   </si>
   <si>
-    <t xml:space="preserve">Aid Used During Test</t>
+    <t>Aid Used During Test</t>
   </si>
   <si>
     <t>AID</t>
   </si>
   <si>
-    <t xml:space="preserve">Not CDISC variable</t>
+    <t>Not CDISC variable</t>
   </si>
   <si>
     <t>19</t>
@@ -393,7 +392,7 @@
     <t>FTAIDOTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Aid Used During Test</t>
+    <t>Other Aid Used During Test</t>
   </si>
   <si>
     <t>20</t>
@@ -402,7 +401,7 @@
     <t>VISITNUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit Number</t>
+    <t>Visit Number</t>
   </si>
   <si>
     <t>21</t>
@@ -411,7 +410,7 @@
     <t>VISIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Visit Name</t>
+    <t>Visit Name</t>
   </si>
   <si>
     <t>22</t>
@@ -420,7 +419,7 @@
     <t>FTDTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Date/Time of Test</t>
+    <t>Date/Time of Test</t>
   </si>
   <si>
     <t>date</t>
@@ -435,10 +434,10 @@
     <t>FTDY</t>
   </si>
   <si>
-    <t xml:space="preserve">Study Day of Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where Clause</t>
+    <t>Study Day of Test</t>
+  </si>
+  <si>
+    <t>Where Clause</t>
   </si>
   <si>
     <t>FTLEXSENS_WC1</t>
@@ -585,16 +584,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">NCI Codelist Code</t>
+    <t>NCI Codelist Code</t>
   </si>
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t xml:space="preserve">NCI Term Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoded Value</t>
+    <t>NCI Term Code</t>
+  </si>
+  <si>
+    <t>Decoded Value</t>
   </si>
   <si>
     <t>Subcategory</t>
@@ -603,16 +602,16 @@
     <t>Derived</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation Interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Short Name</t>
+    <t>Evaluation Interval</t>
+  </si>
+  <si>
+    <t>Functional Test Short Name</t>
   </si>
   <si>
     <t>LEXSENS</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Sensory Grading</t>
+    <t>Lower Extremity Sensory Grading</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Sensory                  </t>
@@ -621,112 +620,112 @@
     <t>LEXREFLX</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Reflex Grading</t>
+    <t>Lower Extremity Reflex Grading</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Reflex          </t>
   </si>
   <si>
-    <t xml:space="preserve">Babinski Sign</t>
+    <t>Babinski Sign</t>
   </si>
   <si>
     <t>LEXMYOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Extremity Myotome Grading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Extremity Myotome</t>
+    <t>Lower Extremity Myotome Grading</t>
+  </si>
+  <si>
+    <t>Lower Extremity Myotome</t>
   </si>
   <si>
     <t>SLCRMYOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Leg Calf Raise Myotome Grading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Leg Calf Raise Myotome</t>
+    <t>Single Leg Calf Raise Myotome Grading</t>
+  </si>
+  <si>
+    <t>Single Leg Calf Raise Myotome</t>
   </si>
   <si>
     <t>LUMSEGP</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Provoked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain and Prone Instability</t>
+    <t>Lumbar Segmental Mobility Pain Provoked</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain and Prone Instability</t>
   </si>
   <si>
     <t>LUMSEG</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Grading</t>
+    <t>Lumbar Segmental Mobility Grading</t>
   </si>
   <si>
     <t>LUMSEGPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Was pain produced during the segmental mobility test</t>
+    <t>Was pain produced during the segmental mobility test</t>
   </si>
   <si>
     <t>LUMSEGPL</t>
   </si>
   <si>
-    <t xml:space="preserve">What was the most painful segment during the segmental mobility test</t>
+    <t>What was the most painful segment during the segmental mobility test</t>
   </si>
   <si>
     <t>PRONINST</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain reduced or eliminated when springing pressure is reapplied to the most painful lumbar segment</t>
+    <t>Pain reduced or eliminated when springing pressure is reapplied to the most painful lumbar segment</t>
   </si>
   <si>
     <t>GRNPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Groin pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hip Internal Rotation Mobility</t>
+    <t>Groin pain</t>
+  </si>
+  <si>
+    <t>Hip Internal Rotation Mobility</t>
   </si>
   <si>
     <t>HIPIRD</t>
   </si>
   <si>
-    <t xml:space="preserve">Hip internal rotation</t>
+    <t>Hip internal rotation</t>
   </si>
   <si>
     <t>LFLEXT12</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Flexion over T12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Flexibility and Dynamic Range of Motion</t>
+    <t>Lumbar Flexion over T12</t>
+  </si>
+  <si>
+    <t>Lumbar Flexibility and Dynamic Range of Motion</t>
   </si>
   <si>
     <t>LFLEXS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Flexion over S1</t>
+    <t>Lumbar Flexion over S1</t>
   </si>
   <si>
     <t>LEXTNT12</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Extension over T12</t>
+    <t>Lumbar Extension over T12</t>
   </si>
   <si>
     <t>LEXTNS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumbar Extension over S1</t>
+    <t>Lumbar Extension over S1</t>
   </si>
   <si>
     <t>LFLEXTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">T12 flexion from trial 1 - S1 flexion from trial 2</t>
+    <t>T12 flexion from trial 1 - S1 flexion from trial 2</t>
   </si>
   <si>
     <t>Y</t>
@@ -735,13 +734,13 @@
     <t>LEXTNTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">T12 extension from trial 1 - S1 extension from trial 2</t>
+    <t>T12 extension from trial 1 - S1 extension from trial 2</t>
   </si>
   <si>
     <t>WALK4M</t>
   </si>
   <si>
-    <t xml:space="preserve">Four Meter Walk Test</t>
+    <t>Four Meter Walk Test</t>
   </si>
   <si>
     <t xml:space="preserve">Four Meter Walk               </t>
@@ -750,25 +749,25 @@
     <t>SIT2ST5X</t>
   </si>
   <si>
-    <t xml:space="preserve">Five Times Sit to Stand Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five Times Sit to Stand</t>
+    <t>Five Times Sit to Stand Test</t>
+  </si>
+  <si>
+    <t>Five Times Sit to Stand</t>
   </si>
   <si>
     <t>TMWTOTD</t>
   </si>
   <si>
-    <t xml:space="preserve">Two Minute Walk Total Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Minute Walk</t>
+    <t>Two Minute Walk Total Distance</t>
+  </si>
+  <si>
+    <t>Two Minute Walk</t>
   </si>
   <si>
     <t>REPMFLX1</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Pain</t>
+    <t>Repeated Movement Flexion Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Repeated Movement   </t>
@@ -777,184 +776,184 @@
     <t>REPMFLX2</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Peripheralization</t>
+    <t>Repeated Movement Flexion Peripheralization</t>
   </si>
   <si>
     <t>REPMFLX3</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Centralization</t>
+    <t>Repeated Movement Flexion Centralization</t>
   </si>
   <si>
     <t>REPMFLX4</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Flexion Directional Preference</t>
+    <t>Repeated Movement Flexion Directional Preference</t>
   </si>
   <si>
     <t>ABMOTPRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Any aberrant motion present</t>
+    <t>Any aberrant motion present</t>
   </si>
   <si>
     <t>ABERMOT1</t>
   </si>
   <si>
-    <t xml:space="preserve">Painful Arc of Motion</t>
+    <t>Painful Arc of Motion</t>
   </si>
   <si>
     <t>ABERMOT2</t>
   </si>
   <si>
-    <t xml:space="preserve">Gower's Sign Thigh Climbing</t>
+    <t>Gower's Sign Thigh Climbing</t>
   </si>
   <si>
     <t>ABERMOT3</t>
   </si>
   <si>
-    <t xml:space="preserve">Reversal of Lumbopelvic Rhythm</t>
+    <t>Reversal of Lumbopelvic Rhythm</t>
   </si>
   <si>
     <t>ABERMOT4</t>
   </si>
   <si>
-    <t xml:space="preserve">Deviation or Instability Catch</t>
+    <t>Deviation or Instability Catch</t>
   </si>
   <si>
     <t>REPMEXPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Pain</t>
+    <t>Repeated Movement Extension Pain</t>
   </si>
   <si>
     <t>REPMEXPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Peripheralization</t>
+    <t>Repeated Movement Extension Peripheralization</t>
   </si>
   <si>
     <t>REPMEXCN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Centralization</t>
+    <t>Repeated Movement Extension Centralization</t>
   </si>
   <si>
     <t>REPMEXDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Extension Directional Preference</t>
+    <t>Repeated Movement Extension Directional Preference</t>
   </si>
   <si>
     <t>REPGLDPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Pain</t>
+    <t>Repeated Movement Side-Gliding Pain</t>
   </si>
   <si>
     <t>REPGLDPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Peripheralization</t>
+    <t>Repeated Movement Side-Gliding Peripheralization</t>
   </si>
   <si>
     <t>REPGLDCN</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Centralization</t>
+    <t>Repeated Movement Side-Gliding Centralization</t>
   </si>
   <si>
     <t>REPGLDDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Side-Gliding Directional Preference</t>
+    <t>Repeated Movement Side-Gliding Directional Preference</t>
   </si>
   <si>
     <t>EPAINRT</t>
   </si>
   <si>
-    <t xml:space="preserve">Ending Pain Rating</t>
+    <t>Ending Pain Rating</t>
   </si>
   <si>
     <t>LOWBPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Back Pain Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Pressure Threshold</t>
+    <t>Low Back Pain Rating</t>
+  </si>
+  <si>
+    <t>Pain Pressure Threshold</t>
   </si>
   <si>
     <t>PPTTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Pressure Threshold Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What side is back pain more dominant</t>
+    <t>Pain Pressure Threshold Test</t>
+  </si>
+  <si>
+    <t>What side is back pain more dominant</t>
   </si>
   <si>
     <t>PNTSUM01</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Temporal Summation After 1st Pinprick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain Temporal Summation</t>
+    <t>Pain Temporal Summation After 1st Pinprick</t>
+  </si>
+  <si>
+    <t>Pain Temporal Summation</t>
   </si>
   <si>
     <t>PNTSUM10</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Temporal Summation After 10th Pinprick</t>
+    <t>Pain Temporal Summation After 10th Pinprick</t>
   </si>
   <si>
     <t>LINGPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">Participant Reports Lingering Pain After 10th Pinprick</t>
+    <t>Participant Reports Lingering Pain After 10th Pinprick</t>
   </si>
   <si>
     <t>LINGPN15</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Rating at 15-sec Post</t>
+    <t>Pain Rating at 15-sec Post</t>
   </si>
   <si>
     <t>LINGPN30</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Rating at 30-sec Post</t>
+    <t>Pain Rating at 30-sec Post</t>
   </si>
   <si>
     <t>MDPTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean difference between 1st and 10th pinprick using data from all 3 trials</t>
+    <t>Mean difference between 1st and 10th pinprick using data from all 3 trials</t>
   </si>
   <si>
     <t>PTSMN15S</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean of 15 second pain reports</t>
+    <t>Mean of 15 second pain reports</t>
   </si>
   <si>
     <t>PTSMN30S</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean of 30 second pain reports</t>
+    <t>Mean of 30 second pain reports</t>
   </si>
   <si>
     <t>CPMPPT</t>
   </si>
   <si>
-    <t xml:space="preserve">Conditional Pain Modulation Pain Temporal Summation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Pain Modulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Name</t>
+    <t>Conditional Pain Modulation Pain Temporal Summation</t>
+  </si>
+  <si>
+    <t>Conditional Pain Modulation</t>
+  </si>
+  <si>
+    <t>Functional Test Name</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Extremity Myotome                </t>
@@ -963,76 +962,76 @@
     <t xml:space="preserve">Five Times Sit to Stand                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Conditional Pain Modulation Pain Pressure Threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Test Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Anteromedial Lower Leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Distal Anterior Tibia and Dorsum of Foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Posterolateral Calf and Foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Patellar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Medial Hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Achilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2/L3: Hip Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3/L4: Quadriceps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4: Ankle Dorsiflexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5: Great Toe Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Hamstring and Ankle Eversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1: Ankle Eversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar L5</t>
+    <t>Conditional Pain Modulation Pain Pressure Threshold</t>
+  </si>
+  <si>
+    <t>Functional Test Category</t>
+  </si>
+  <si>
+    <t>L4: Anteromedial Lower Leg</t>
+  </si>
+  <si>
+    <t>L5: Distal Anterior Tibia and Dorsum of Foot</t>
+  </si>
+  <si>
+    <t>S1: Posterolateral Calf and Foot</t>
+  </si>
+  <si>
+    <t>L4: Patellar</t>
+  </si>
+  <si>
+    <t>L5: Medial Hamstring</t>
+  </si>
+  <si>
+    <t>S1: Achilles</t>
+  </si>
+  <si>
+    <t>L2/L3: Hip Flexion</t>
+  </si>
+  <si>
+    <t>L3/L4: Quadriceps</t>
+  </si>
+  <si>
+    <t>L4: Ankle Dorsiflexion</t>
+  </si>
+  <si>
+    <t>L5: Great Toe Extension</t>
+  </si>
+  <si>
+    <t>S1: Hamstring</t>
+  </si>
+  <si>
+    <t>S1: Hamstring and Ankle Eversion</t>
+  </si>
+  <si>
+    <t>S1: Ankle Eversion</t>
+  </si>
+  <si>
+    <t>Lumbar L1</t>
+  </si>
+  <si>
+    <t>Lumbar L2</t>
+  </si>
+  <si>
+    <t>Lumbar L3</t>
+  </si>
+  <si>
+    <t>Lumbar L4</t>
+  </si>
+  <si>
+    <t>Lumbar L5</t>
   </si>
   <si>
     <t>Trapezius</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower Back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volar Forearm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Region</t>
+    <t>Lower Back</t>
+  </si>
+  <si>
+    <t>Volar Forearm</t>
+  </si>
+  <si>
+    <t>Lumbar Region</t>
   </si>
   <si>
     <t>Left</t>
@@ -1056,7 +1055,7 @@
     <t>Side-lying</t>
   </si>
   <si>
-    <t xml:space="preserve">Original or Standardized Units</t>
+    <t>Original or Standardized Units</t>
   </si>
   <si>
     <t>Seconds</t>
@@ -1071,10 +1070,10 @@
     <t>kg/cm2</t>
   </si>
   <si>
-    <t xml:space="preserve">Kilogram per centimeter squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not done</t>
+    <t>Kilogram per centimeter squared</t>
+  </si>
+  <si>
+    <t>Not done</t>
   </si>
   <si>
     <t>None</t>
@@ -1086,25 +1085,22 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">LE Sensory Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None/Diminished (light pain and/or pain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypersensitivity (light touch perceived as pain)</t>
+    <t>LE Sensory Scale</t>
+  </si>
+  <si>
+    <t>None/Diminished (light pain and/or pain)</t>
+  </si>
+  <si>
+    <t>Normal Sensation</t>
+  </si>
+  <si>
+    <t>Hypersensitivity (light touch perceived as pain)</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">LE Reflex Scale</t>
-  </si>
-  <si>
-    <t>Abesent/Diminished</t>
+    <t>LE Reflex Scale</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1113,67 +1109,67 @@
     <t>Increased</t>
   </si>
   <si>
-    <t xml:space="preserve">Downgoing (normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgoing (abnormal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kendall Motor Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flicker or trace of contraction w/min or no motion of joints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement w/gravity eliminated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity, but not against resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity w/some resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active movement against gravity w/full resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Leg Calf Raise Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No muscle contraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The tester can feel the contraction of muscle, but no movement of the body part occurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial ROM, less than 1 quality repetition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 1 quality repetition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 2-3 quality repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full ROM, 4-5 quality repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes No Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypo (Decreased)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper (Increased)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Segmental Mobility Pain Location</t>
+    <t>Downgoing (normal)</t>
+  </si>
+  <si>
+    <t>Upgoing (abnormal)</t>
+  </si>
+  <si>
+    <t>Kendall Motor Strength</t>
+  </si>
+  <si>
+    <t>No contraction</t>
+  </si>
+  <si>
+    <t>Flicker or trace of contraction w/min or no motion of joints</t>
+  </si>
+  <si>
+    <t>Active movement w/gravity eliminated</t>
+  </si>
+  <si>
+    <t>Active movement against gravity, but not against resistance</t>
+  </si>
+  <si>
+    <t>Active movement against gravity w/some resistance</t>
+  </si>
+  <si>
+    <t>Active movement against gravity w/full resistance</t>
+  </si>
+  <si>
+    <t>Single Leg Calf Raise Scale</t>
+  </si>
+  <si>
+    <t>No muscle contraction</t>
+  </si>
+  <si>
+    <t>The tester can feel the contraction of muscle, but no movement of the body part occurs</t>
+  </si>
+  <si>
+    <t>Partial ROM, less than 1 quality repetition</t>
+  </si>
+  <si>
+    <t>Full ROM, 1 quality repetition</t>
+  </si>
+  <si>
+    <t>Full ROM, 2-3 quality repetitions</t>
+  </si>
+  <si>
+    <t>Full ROM, 4-5 quality repetitions</t>
+  </si>
+  <si>
+    <t>Yes No Response</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain Level</t>
+  </si>
+  <si>
+    <t>Hypo (Decreased)</t>
+  </si>
+  <si>
+    <t>Hyper (Increased)</t>
+  </si>
+  <si>
+    <t>Lumbar Segmental Mobility Pain Location</t>
   </si>
   <si>
     <t>L1</t>
@@ -1191,52 +1187,52 @@
     <t>L5</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated Movement Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No change</t>
+    <t>Repeated Movement Pain</t>
+  </si>
+  <si>
+    <t>No change</t>
   </si>
   <si>
     <t>Decreased</t>
   </si>
   <si>
-    <t xml:space="preserve">Aberrant Motion Presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going into Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Returning from Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going into Flexion and Returning from Flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerical Pain Rating Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst pain imaginable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low Back Pain Rating Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst imaginable pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pain sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extremely intense pain sensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant Pain Side</t>
+    <t>Aberrant Motion Presence</t>
+  </si>
+  <si>
+    <t>Going into Flexion</t>
+  </si>
+  <si>
+    <t>Returning from Flexion</t>
+  </si>
+  <si>
+    <t>Going into Flexion and Returning from Flexion</t>
+  </si>
+  <si>
+    <t>Numerical Pain Rating Scale</t>
+  </si>
+  <si>
+    <t>No pain at all</t>
+  </si>
+  <si>
+    <t>Worst pain imaginable</t>
+  </si>
+  <si>
+    <t>Low Back Pain Rating Scale</t>
+  </si>
+  <si>
+    <t>No pain</t>
+  </si>
+  <si>
+    <t>Worst imaginable pain</t>
+  </si>
+  <si>
+    <t>No pain sensation</t>
+  </si>
+  <si>
+    <t>Extremely intense pain sensation</t>
+  </si>
+  <si>
+    <t>Dominant Pain Side</t>
   </si>
   <si>
     <t>Both</t>
@@ -1257,46 +1253,46 @@
     <t>IN</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMSEGP, LUMSEGPI, PRONINST, GRNPAIN,REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, REPMEXPE, REPMEXCN, REPMEXDP, REPGLDPE, REPGLDCN, REPGLDDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALK4M, SIT2ST5X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPMFLX1, REPMEXPN, REPGLDPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4</t>
+    <t>LUMSEGP, LUMSEGPI, PRONINST, GRNPAIN,REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, REPMEXPE, REPMEXCN, REPMEXDP, REPGLDPE, REPGLDCN, REPGLDDP</t>
+  </si>
+  <si>
+    <t>HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT</t>
+  </si>
+  <si>
+    <t>WALK4M, SIT2ST5X</t>
+  </si>
+  <si>
+    <t>REPMFLX1, REPMEXPN, REPGLDPN</t>
+  </si>
+  <si>
+    <t>ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4</t>
   </si>
   <si>
     <t>PPTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">PNTSUM01, PNTSUM10, LINGPN15, LINGPN30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDPTS, PTSMN15S, PTSMN30S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALK4M, TMWTOTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXSENS, LEXREFLX, BABINSKI, LEXMYOT, SLCRMYOT, LUMSEGP, LUMSEG, LUMSEGPI, LUMSEGPL, PRONINST, GRNPAIN, HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT, WALK4M, SIT2ST5X, TMWTOTD, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, EPAINRT, LOWBPAIN, PPTTEST, LBPSIDE, PNTSUM01, PNTSUM10, LINGPAIN, LINGPAIN15, LINGPN30,  MDPTS, PTSMN15S, PTSMN30S, CPMPPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXMYOT, PPTTEST, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4</t>
+    <t>PNTSUM01, PNTSUM10, LINGPN15, LINGPN30</t>
+  </si>
+  <si>
+    <t>MDPTS, PTSMN15S, PTSMN30S</t>
+  </si>
+  <si>
+    <t>WALK4M, TMWTOTD</t>
+  </si>
+  <si>
+    <t>LEXSENS, LEXREFLX, BABINSKI, LEXMYOT, SLCRMYOT, LUMSEGP, LUMSEG, LUMSEGPI, LUMSEGPL, PRONINST, GRNPAIN, HIPIRD, LFLEXT12, LFLEXS1, LEXTNT12, LEXTNS1, LFLEXTOT, LEXTNTOT, WALK4M, SIT2ST5X, TMWTOTD, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4, ABMOTPRE, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, EPAINRT, LOWBPAIN, PPTTEST, LBPSIDE, PNTSUM01, PNTSUM10, LINGPAIN, LINGPAIN15, LINGPN30,  MDPTS, PTSMN15S, PTSMN30S, CPMPPT</t>
+  </si>
+  <si>
+    <t>LEXMYOT, PPTTEST, ABERMOT1, ABERMOT2, ABERMOT3, ABERMOT4, REPGLDCN, REPGLDDP, REPGLDPE, REPGLDPN, REPMEXCN, REPMEXDP, REPMEXPE, REPMEXPN, REPMFLX1, REPMFLX2, REPMFLX3, REPMFLX4</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Expression Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression Code</t>
+    <t>Expression Context</t>
+  </si>
+  <si>
+    <t>Expression Code</t>
   </si>
   <si>
     <t>Document</t>
@@ -1306,38 +1302,47 @@
   </si>
   <si>
     <t>Href</t>
+  </si>
+  <si>
+    <t>Absent/Diminished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1364,46 +1369,44 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="2"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,295 +1414,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,24 +1625,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,70 +1702,70 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
-    <col customWidth="1" min="3" max="3" width="19.42578125"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>421</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.7109375"/>
-    <col customWidth="1" min="2" max="2" width="23.42578125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="16.7109375"/>
-    <col customWidth="1" min="4" max="4" width="60.42578125"/>
-    <col customWidth="1" min="5" max="5" width="12.42578125"/>
-    <col customWidth="1" min="6" max="6" width="58.42578125"/>
-    <col customWidth="1" min="7" max="7" width="12.42578125"/>
-    <col customWidth="1" min="8" max="8" width="15.42578125"/>
-    <col customWidth="1" min="9" max="9" width="19.42578125"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="58.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2095,42 +1821,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="3" width="8.42578125"/>
-    <col customWidth="1" min="2" max="2" width="9.7109375"/>
-    <col customWidth="1" min="3" max="3" width="14.42578125"/>
-    <col customWidth="1" min="4" max="4" width="45.7109375"/>
-    <col customWidth="1" min="5" max="5" width="11"/>
-    <col customWidth="1" min="6" max="6" style="4" width="8.42578125"/>
-    <col customWidth="1" min="7" max="7" style="3" width="15.42578125"/>
-    <col customWidth="1" min="8" max="8" style="3" width="11"/>
-    <col customWidth="1" min="9" max="9" width="12.42578125"/>
-    <col customWidth="1" min="10" max="10" width="11"/>
-    <col customWidth="1" min="11" max="11" width="17.42578125"/>
-    <col customWidth="1" min="12" max="13" width="11.7109375"/>
-    <col customWidth="1" min="14" max="14" width="15.28515625"/>
-    <col customWidth="1" min="15" max="15" width="21.42578125"/>
-    <col customWidth="1" min="16" max="16" width="24.42578125"/>
+    <col min="1" max="1" width="8.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="45.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" customWidth="1"/>
+    <col min="12" max="13" width="11.73046875" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" customWidth="1"/>
+    <col min="15" max="15" width="21.3984375" customWidth="1"/>
+    <col min="16" max="16" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -2206,7 +1933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -2235,7 +1962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
@@ -2261,23 +1988,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2286,22 +2013,21 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="O5" s="9" t="s">
+      <c r="O5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2314,24 +2040,24 @@
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2344,24 +2070,24 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2374,24 +2100,24 @@
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2404,24 +2130,24 @@
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2434,24 +2160,24 @@
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2464,24 +2190,24 @@
       <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2494,22 +2220,21 @@
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="O12" s="9" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2522,24 +2247,24 @@
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2552,22 +2277,21 @@
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="O14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2580,24 +2304,24 @@
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2610,22 +2334,21 @@
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="O16" s="9" t="s">
+      <c r="O16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2638,22 +2361,21 @@
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="O17" s="9" t="s">
+      <c r="O17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2666,22 +2388,21 @@
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="O18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2694,27 +2415,27 @@
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" t="s">
         <v>77</v>
       </c>
       <c r="P19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2727,25 +2448,24 @@
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="O20" t="s">
         <v>68</v>
       </c>
       <c r="P20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2758,22 +2478,21 @@
       <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="O21" s="9" t="s">
+      <c r="O21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2786,28 +2505,26 @@
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="O22" s="9" t="s">
+      <c r="O22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="7"/>
       <c r="H23" s="3" t="s">
         <v>128</v>
@@ -2815,28 +2532,27 @@
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="O23" s="9" t="s">
+      <c r="O23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" ht="15.949999999999999">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2845,97 +2561,96 @@
       <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="O24" s="9" t="s">
+      <c r="O24" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P24"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:P24" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.7109375"/>
-    <col customWidth="1" min="2" max="3" width="18.7109375"/>
-    <col customWidth="1" min="4" max="4" width="26.140625"/>
-    <col customWidth="1" min="5" max="5" width="23.42578125"/>
-    <col customWidth="1" min="6" max="6" width="11.7109375"/>
-    <col customWidth="1" min="7" max="7" width="10.140625"/>
-    <col customWidth="1" min="8" max="8" width="15.42578125"/>
-    <col customWidth="1" min="9" max="9" width="11"/>
-    <col customWidth="1" min="10" max="10" width="11.7109375"/>
-    <col customWidth="1" min="11" max="12" width="12.85546875"/>
-    <col customWidth="1" min="13" max="13" width="11.7109375"/>
-    <col customWidth="1" min="14" max="14" width="13.7109375"/>
-    <col customWidth="1" min="15" max="15" width="15.28515625"/>
-    <col customWidth="1" min="16" max="16" width="15.42578125"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="11" max="12" width="12.86328125" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2958,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2981,7 +2696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3004,7 +2719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3027,7 +2742,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3050,7 +2765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3073,7 +2788,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3096,7 +2811,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3119,7 +2834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3142,7 +2857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3165,7 +2880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3188,7 +2903,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3211,7 +2926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3234,7 +2949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3257,7 +2972,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3277,7 +2992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3300,7 +3015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3320,10 +3035,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>5.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3343,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3366,7 +3081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>11</v>
       </c>
@@ -3386,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>5.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>11</v>
       </c>
@@ -3409,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3432,7 +3147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3455,7 +3170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3478,7 +3193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3497,11 +3212,11 @@
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>14</v>
       </c>
@@ -3520,11 +3235,11 @@
       <c r="G27">
         <v>8</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>15</v>
       </c>
@@ -3543,11 +3258,11 @@
       <c r="G28">
         <v>30</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>15</v>
       </c>
@@ -3566,11 +3281,11 @@
       <c r="G29">
         <v>8</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>16</v>
       </c>
@@ -3589,11 +3304,11 @@
       <c r="G30">
         <v>10</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>17</v>
       </c>
@@ -3613,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
@@ -3636,7 +3351,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>17</v>
       </c>
@@ -3656,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>18</v>
       </c>
@@ -3675,11 +3390,11 @@
       <c r="G34">
         <v>30</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>18</v>
       </c>
@@ -3698,11 +3413,11 @@
       <c r="G35">
         <v>5</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>19</v>
       </c>
@@ -3725,7 +3440,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3745,7 +3460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>20</v>
       </c>
@@ -3768,7 +3483,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>21</v>
       </c>
@@ -3788,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>21</v>
       </c>
@@ -3811,7 +3526,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3834,7 +3549,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>23</v>
       </c>
@@ -3857,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>24</v>
       </c>
@@ -3881,38 +3596,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="33.7109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="18"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="8"/>
-    <col customWidth="1" min="6" max="6" style="3" width="47"/>
-    <col customWidth="1" min="7" max="7" width="7.28515625"/>
-    <col customWidth="1" min="8" max="8" width="45"/>
-    <col customWidth="1" min="9" max="9" width="47.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="39.85546875"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="8"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" style="3" width="17.85546875"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.265625" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="47.73046875" customWidth="1"/>
+    <col min="10" max="10" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -3950,7 +3666,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3973,7 +3689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3996,7 +3712,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4019,7 +3735,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +3758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4065,7 +3781,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4088,7 +3804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4111,7 +3827,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4134,7 +3850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +3873,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -4180,7 +3896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -4203,7 +3919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4226,7 +3942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -4249,7 +3965,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4272,7 +3988,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4295,7 +4011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4318,7 +4034,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -4344,7 +4060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -4370,7 +4086,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -4393,7 +4109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -4416,7 +4132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4439,7 +4155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4462,7 +4178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -4485,7 +4201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -4508,7 +4224,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -4531,7 +4247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +4270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -4577,7 +4293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4600,7 +4316,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4623,7 +4339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -4646,7 +4362,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4669,7 +4385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -4692,7 +4408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -4715,7 +4431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4738,7 +4454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -4761,7 +4477,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4784,7 +4500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -4807,7 +4523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -4830,7 +4546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -4853,7 +4569,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -4876,7 +4592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +4615,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -4922,7 +4638,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -4945,7 +4661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -4968,7 +4684,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4991,7 +4707,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5014,7 +4730,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5037,7 +4753,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -5063,7 +4779,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5089,7 +4805,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -5115,7 +4831,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5138,8 +4854,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5159,7 +4874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -5179,7 +4894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5199,7 +4914,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5219,7 +4934,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -5239,7 +4954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -5259,7 +4974,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5279,7 +4994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5299,7 +5014,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -5319,7 +5034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -5339,7 +5054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5359,7 +5074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5379,7 +5094,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5399,7 +5114,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5419,7 +5134,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5439,7 +5154,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -5459,7 +5174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5479,7 +5194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -5499,7 +5214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -5519,7 +5234,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -5539,7 +5254,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -5559,7 +5274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -5579,7 +5294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -5599,7 +5314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -5619,7 +5334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -5639,7 +5354,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -5659,7 +5374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -5679,7 +5394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -5699,7 +5414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -5719,7 +5434,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -5739,7 +5454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -5759,7 +5474,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -5779,7 +5494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -5799,7 +5514,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -5819,7 +5534,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -5839,7 +5554,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -5859,7 +5574,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -5879,7 +5594,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -5899,7 +5614,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +5634,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -5939,7 +5654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -5959,7 +5674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -5979,7 +5694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -5999,7 +5714,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -6019,7 +5734,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -6039,7 +5754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -6059,7 +5774,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +5794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -6099,7 +5814,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -6119,7 +5834,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -6139,7 +5854,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -6159,8 +5874,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105"/>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -6176,9 +5890,8 @@
       <c r="F106" t="s">
         <v>191</v>
       </c>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -6194,9 +5907,8 @@
       <c r="F107" t="s">
         <v>194</v>
       </c>
-      <c r="I107" s="9"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -6212,9 +5924,8 @@
       <c r="F108" t="s">
         <v>305</v>
       </c>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -6230,9 +5941,8 @@
       <c r="F109" t="s">
         <v>201</v>
       </c>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -6248,9 +5958,8 @@
       <c r="F110" t="s">
         <v>204</v>
       </c>
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -6266,9 +5975,8 @@
       <c r="F111" t="s">
         <v>215</v>
       </c>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -6284,9 +5992,8 @@
       <c r="F112" t="s">
         <v>220</v>
       </c>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -6302,9 +6009,8 @@
       <c r="F113" t="s">
         <v>234</v>
       </c>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -6320,9 +6026,8 @@
       <c r="F114" t="s">
         <v>306</v>
       </c>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -6338,9 +6043,8 @@
       <c r="F115" t="s">
         <v>240</v>
       </c>
-      <c r="I115" s="9"/>
-    </row>
-    <row r="116">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -6356,9 +6060,8 @@
       <c r="F116" t="s">
         <v>243</v>
       </c>
-      <c r="I116" s="9"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -6374,9 +6077,8 @@
       <c r="F117" t="s">
         <v>280</v>
       </c>
-      <c r="I117" s="9"/>
-    </row>
-    <row r="118">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -6392,9 +6094,8 @@
       <c r="F118" t="s">
         <v>286</v>
       </c>
-      <c r="I118" s="9"/>
-    </row>
-    <row r="119">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -6410,13 +6111,11 @@
       <c r="F119" t="s">
         <v>303</v>
       </c>
-      <c r="I119" s="9"/>
-    </row>
-    <row r="120">
-      <c r="F120" s="9"/>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -6429,12 +6128,11 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" t="s">
         <v>309</v>
       </c>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -6447,12 +6145,11 @@
       <c r="E122">
         <v>2</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" t="s">
         <v>310</v>
       </c>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -6465,12 +6162,11 @@
       <c r="E123">
         <v>3</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" t="s">
         <v>311</v>
       </c>
-      <c r="H123" s="9"/>
-    </row>
-    <row r="124">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -6487,7 +6183,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -6504,7 +6200,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -6521,7 +6217,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -6538,7 +6234,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -6555,7 +6251,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -6572,7 +6268,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6285,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -6606,7 +6302,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -6623,7 +6319,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -6640,7 +6336,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -6657,7 +6353,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -6674,7 +6370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -6691,7 +6387,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -6708,7 +6404,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -6725,7 +6421,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -6742,7 +6438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -6759,7 +6455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -6776,7 +6472,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -6793,7 +6489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -6806,12 +6502,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" t="s">
         <v>331</v>
       </c>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>82</v>
       </c>
@@ -6824,20 +6519,18 @@
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" t="s">
         <v>332</v>
       </c>
-      <c r="H145" s="9"/>
-    </row>
-    <row r="146">
-      <c r="F146" s="9"/>
-      <c r="H146" s="9"/>
-    </row>
-    <row r="147">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>76</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" t="s">
         <v>75</v>
       </c>
       <c r="D147" t="s">
@@ -6849,13 +6542,12 @@
       <c r="F147" t="s">
         <v>333</v>
       </c>
-      <c r="H147" s="9"/>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>76</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" t="s">
         <v>75</v>
       </c>
       <c r="D148" t="s">
@@ -6864,16 +6556,15 @@
       <c r="E148">
         <v>2</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" t="s">
         <v>334</v>
       </c>
-      <c r="H148" s="9"/>
-    </row>
-    <row r="149">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>76</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" t="s">
         <v>75</v>
       </c>
       <c r="D149" t="s">
@@ -6882,16 +6573,15 @@
       <c r="E149">
         <v>3</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" t="s">
         <v>335</v>
       </c>
-      <c r="H149" s="9"/>
-    </row>
-    <row r="150">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" t="s">
         <v>75</v>
       </c>
       <c r="D150" t="s">
@@ -6900,16 +6590,15 @@
       <c r="E150">
         <v>4</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" t="s">
         <v>336</v>
       </c>
-      <c r="H150" s="9"/>
-    </row>
-    <row r="151">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>76</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" t="s">
         <v>75</v>
       </c>
       <c r="D151" t="s">
@@ -6918,20 +6607,18 @@
       <c r="E151">
         <v>5</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" t="s">
         <v>337</v>
       </c>
-      <c r="H151" s="9"/>
-    </row>
-    <row r="152">
-      <c r="F152" s="9"/>
-      <c r="H152" s="9"/>
-    </row>
-    <row r="153">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>92</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" t="s">
         <v>338</v>
       </c>
       <c r="D153" t="s">
@@ -6940,16 +6627,15 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" t="s">
         <v>339</v>
       </c>
-      <c r="H153" s="9"/>
-    </row>
-    <row r="154">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>92</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" t="s">
         <v>338</v>
       </c>
       <c r="D154" t="s">
@@ -6958,16 +6644,15 @@
       <c r="E154">
         <v>2</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" t="s">
         <v>340</v>
       </c>
-      <c r="H154" s="9"/>
-    </row>
-    <row r="155">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>92</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" t="s">
         <v>338</v>
       </c>
       <c r="D155" t="s">
@@ -6976,16 +6661,15 @@
       <c r="E155">
         <v>3</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" t="s">
         <v>341</v>
       </c>
-      <c r="H155" s="9"/>
-    </row>
-    <row r="156">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>92</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" t="s">
         <v>338</v>
       </c>
       <c r="D156" t="s">
@@ -6994,18 +6678,17 @@
       <c r="E156">
         <v>4</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" t="s">
         <v>342</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="157">
-      <c r="F157" s="9"/>
-      <c r="H157" s="9"/>
-    </row>
-    <row r="158">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>100</v>
       </c>
@@ -7018,16 +6701,14 @@
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" t="s">
         <v>344</v>
       </c>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159">
-      <c r="F159" s="9"/>
-      <c r="H159" s="9"/>
-    </row>
-    <row r="160">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -7040,12 +6721,11 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F160" t="s">
         <v>345</v>
       </c>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>113</v>
       </c>
@@ -7058,12 +6738,11 @@
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" t="s">
         <v>346</v>
       </c>
-      <c r="H161" s="9"/>
-    </row>
-    <row r="162">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>113</v>
       </c>
@@ -7076,17 +6755,14 @@
       <c r="E162">
         <v>3</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" t="s">
         <v>347</v>
       </c>
-      <c r="H162" s="9"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="F163" s="9"/>
-    </row>
-    <row r="164">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>53</v>
       </c>
@@ -7106,7 +6782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>134</v>
       </c>
@@ -7123,7 +6799,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>134</v>
       </c>
@@ -7140,7 +6816,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>134</v>
       </c>
@@ -7157,7 +6833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>135</v>
       </c>
@@ -7177,7 +6853,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>135</v>
       </c>
@@ -7197,7 +6873,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>135</v>
       </c>
@@ -7217,7 +6893,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>137</v>
       </c>
@@ -7231,10 +6907,10 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -7248,10 +6924,10 @@
         <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>137</v>
       </c>
@@ -7265,10 +6941,10 @@
         <v>3</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>138</v>
       </c>
@@ -7285,10 +6961,10 @@
         <v>352</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>138</v>
       </c>
@@ -7305,10 +6981,10 @@
         <v>45</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>138</v>
       </c>
@@ -7325,10 +7001,10 @@
         <v>50</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -7342,10 +7018,10 @@
         <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>140</v>
       </c>
@@ -7359,10 +7035,10 @@
         <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>141</v>
       </c>
@@ -7379,10 +7055,10 @@
         <v>45</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>141</v>
       </c>
@@ -7399,15 +7075,15 @@
         <v>50</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>143</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
         <v>48</v>
@@ -7416,15 +7092,15 @@
         <v>1</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>143</v>
       </c>
       <c r="B189" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D189" t="s">
         <v>48</v>
@@ -7433,15 +7109,15 @@
         <v>2</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>143</v>
       </c>
       <c r="B190" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D190" t="s">
         <v>48</v>
@@ -7450,15 +7126,15 @@
         <v>3</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>143</v>
       </c>
       <c r="B191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
         <v>48</v>
@@ -7467,15 +7143,15 @@
         <v>4</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>143</v>
       </c>
       <c r="B192" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
         <v>48</v>
@@ -7484,15 +7160,15 @@
         <v>5</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>143</v>
       </c>
       <c r="B193" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D193" t="s">
         <v>48</v>
@@ -7501,15 +7177,15 @@
         <v>6</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>144</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
         <v>60</v>
@@ -7521,15 +7197,15 @@
         <v>352</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>144</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
@@ -7541,15 +7217,15 @@
         <v>45</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>144</v>
       </c>
       <c r="B197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
         <v>60</v>
@@ -7561,15 +7237,15 @@
         <v>50</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>144</v>
       </c>
       <c r="B198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
         <v>60</v>
@@ -7581,15 +7257,15 @@
         <v>54</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>144</v>
       </c>
       <c r="B199" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>
@@ -7601,15 +7277,15 @@
         <v>57</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>144</v>
       </c>
       <c r="B200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D200" t="s">
         <v>60</v>
@@ -7621,15 +7297,15 @@
         <v>61</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>146</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D202" t="s">
         <v>48</v>
@@ -7638,15 +7314,15 @@
         <v>1</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>146</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D203" t="s">
         <v>48</v>
@@ -7655,15 +7331,15 @@
         <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>146</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D204" t="s">
         <v>48</v>
@@ -7672,15 +7348,15 @@
         <v>3</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>146</v>
       </c>
       <c r="B205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D205" t="s">
         <v>48</v>
@@ -7689,15 +7365,15 @@
         <v>4</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>146</v>
       </c>
       <c r="B206" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D206" t="s">
         <v>48</v>
@@ -7706,15 +7382,15 @@
         <v>5</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>146</v>
       </c>
       <c r="B207" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D207" t="s">
         <v>48</v>
@@ -7722,16 +7398,16 @@
       <c r="E207">
         <v>6</v>
       </c>
-      <c r="F207" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="F207" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>147</v>
       </c>
       <c r="B209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D209" t="s">
         <v>60</v>
@@ -7743,15 +7419,15 @@
         <v>352</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>147</v>
       </c>
       <c r="B210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D210" t="s">
         <v>60</v>
@@ -7763,15 +7439,15 @@
         <v>45</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>147</v>
       </c>
       <c r="B211" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D211" t="s">
         <v>60</v>
@@ -7783,15 +7459,15 @@
         <v>50</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>147</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D212" t="s">
         <v>60</v>
@@ -7803,15 +7479,15 @@
         <v>54</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>147</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D213" t="s">
         <v>60</v>
@@ -7823,15 +7499,15 @@
         <v>57</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>147</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D214" t="s">
         <v>60</v>
@@ -7842,16 +7518,16 @@
       <c r="F214" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H214" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="H214" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>149</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D216" t="s">
         <v>48</v>
@@ -7863,12 +7539,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>149</v>
       </c>
       <c r="B217" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D217" t="s">
         <v>48</v>
@@ -7880,12 +7556,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>151</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D219" t="s">
         <v>48</v>
@@ -7894,15 +7570,15 @@
         <v>1</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>151</v>
       </c>
       <c r="B220" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D220" t="s">
         <v>48</v>
@@ -7911,15 +7587,15 @@
         <v>2</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>151</v>
       </c>
       <c r="B221" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D221" t="s">
         <v>48</v>
@@ -7928,15 +7604,15 @@
         <v>3</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>153</v>
       </c>
       <c r="B223" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D223" t="s">
         <v>48</v>
@@ -7945,15 +7621,15 @@
         <v>1</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>153</v>
       </c>
       <c r="B224" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D224" t="s">
         <v>48</v>
@@ -7962,15 +7638,15 @@
         <v>2</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>153</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D225" t="s">
         <v>48</v>
@@ -7979,15 +7655,15 @@
         <v>3</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>153</v>
       </c>
       <c r="B226" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D226" t="s">
         <v>48</v>
@@ -7996,15 +7672,15 @@
         <v>4</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>153</v>
       </c>
       <c r="B227" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D227" t="s">
         <v>48</v>
@@ -8013,15 +7689,15 @@
         <v>5</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D229" t="s">
         <v>48</v>
@@ -8030,15 +7706,15 @@
         <v>1</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>158</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D230" t="s">
         <v>48</v>
@@ -8047,15 +7723,15 @@
         <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>158</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D231" t="s">
         <v>48</v>
@@ -8064,15 +7740,15 @@
         <v>3</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>160</v>
       </c>
       <c r="B233" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D233" t="s">
         <v>48</v>
@@ -8081,15 +7757,15 @@
         <v>1</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>160</v>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D234" t="s">
         <v>48</v>
@@ -8098,15 +7774,15 @@
         <v>2</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>160</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D235" t="s">
         <v>48</v>
@@ -8115,15 +7791,15 @@
         <v>3</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>160</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D236" t="s">
         <v>48</v>
@@ -8135,1444 +7811,1232 @@
         <v>345</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="9" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
         <v>162</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" t="s">
+        <v>389</v>
+      </c>
+      <c r="D238" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
         <v>390</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E238" s="9">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>162</v>
+      </c>
+      <c r="B239" t="s">
+        <v>389</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
         <v>1</v>
       </c>
-      <c r="F238" s="9" t="s">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" t="s">
+        <v>389</v>
+      </c>
+      <c r="D240" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" t="s">
+        <v>389</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" t="s">
+        <v>48</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>162</v>
+      </c>
+      <c r="B243" t="s">
+        <v>389</v>
+      </c>
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243">
+        <v>6</v>
+      </c>
+      <c r="F243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>162</v>
+      </c>
+      <c r="B244" t="s">
+        <v>389</v>
+      </c>
+      <c r="D244" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>162</v>
+      </c>
+      <c r="B245" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>162</v>
+      </c>
+      <c r="B246" t="s">
+        <v>389</v>
+      </c>
+      <c r="D246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246">
+        <v>9</v>
+      </c>
+      <c r="F246">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>162</v>
+      </c>
+      <c r="B247" t="s">
+        <v>389</v>
+      </c>
+      <c r="D247" t="s">
+        <v>48</v>
+      </c>
+      <c r="E247">
+        <v>10</v>
+      </c>
+      <c r="F247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>162</v>
+      </c>
+      <c r="B248" t="s">
+        <v>389</v>
+      </c>
+      <c r="D248" t="s">
+        <v>48</v>
+      </c>
+      <c r="E248">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s">
         <v>391</v>
       </c>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B239" s="9" t="s">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>163</v>
+      </c>
+      <c r="B250" t="s">
+        <v>389</v>
+      </c>
+      <c r="D250" t="s">
+        <v>60</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
         <v>390</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E239" s="9">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>163</v>
+      </c>
+      <c r="B251" t="s">
+        <v>389</v>
+      </c>
+      <c r="D251" t="s">
+        <v>60</v>
+      </c>
+      <c r="E251">
         <v>2</v>
       </c>
-      <c r="F239" s="9">
+      <c r="F251">
         <v>1</v>
       </c>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E240" s="9">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>163</v>
+      </c>
+      <c r="B252" t="s">
+        <v>389</v>
+      </c>
+      <c r="D252" t="s">
+        <v>60</v>
+      </c>
+      <c r="E252">
         <v>3</v>
       </c>
-      <c r="F240" s="9">
+      <c r="F252">
         <v>2</v>
       </c>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E241" s="9">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>163</v>
+      </c>
+      <c r="B253" t="s">
+        <v>389</v>
+      </c>
+      <c r="D253" t="s">
+        <v>60</v>
+      </c>
+      <c r="E253">
         <v>4</v>
       </c>
-      <c r="F241" s="9">
+      <c r="F253">
         <v>3</v>
       </c>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E242" s="9">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>163</v>
+      </c>
+      <c r="B254" t="s">
+        <v>389</v>
+      </c>
+      <c r="D254" t="s">
+        <v>60</v>
+      </c>
+      <c r="E254">
         <v>5</v>
       </c>
-      <c r="F242" s="9">
+      <c r="F254">
         <v>4</v>
       </c>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E243" s="9">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>163</v>
+      </c>
+      <c r="B255" t="s">
+        <v>389</v>
+      </c>
+      <c r="D255" t="s">
+        <v>60</v>
+      </c>
+      <c r="E255">
         <v>6</v>
       </c>
-      <c r="F243" s="9">
+      <c r="F255">
         <v>5</v>
       </c>
-      <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E244" s="9">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>163</v>
+      </c>
+      <c r="B256" t="s">
+        <v>389</v>
+      </c>
+      <c r="D256" t="s">
+        <v>60</v>
+      </c>
+      <c r="E256">
         <v>7</v>
       </c>
-      <c r="F244" s="9">
+      <c r="F256">
         <v>6</v>
       </c>
-      <c r="G244" s="9"/>
-      <c r="H244" s="9"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E245" s="9">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>163</v>
+      </c>
+      <c r="B257" t="s">
+        <v>389</v>
+      </c>
+      <c r="D257" t="s">
+        <v>60</v>
+      </c>
+      <c r="E257">
         <v>8</v>
       </c>
-      <c r="F245" s="9">
+      <c r="F257">
         <v>7</v>
       </c>
-      <c r="G245" s="9"/>
-      <c r="H245" s="9"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E246" s="9">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>163</v>
+      </c>
+      <c r="B258" t="s">
+        <v>389</v>
+      </c>
+      <c r="D258" t="s">
+        <v>60</v>
+      </c>
+      <c r="E258">
         <v>9</v>
       </c>
-      <c r="F246" s="9">
+      <c r="F258">
         <v>8</v>
       </c>
-      <c r="G246" s="9"/>
-      <c r="H246" s="9"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E247" s="9">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>163</v>
+      </c>
+      <c r="B259" t="s">
+        <v>389</v>
+      </c>
+      <c r="D259" t="s">
+        <v>60</v>
+      </c>
+      <c r="E259">
         <v>10</v>
       </c>
-      <c r="F247" s="9">
+      <c r="F259">
         <v>9</v>
       </c>
-      <c r="G247" s="9"/>
-      <c r="H247" s="9"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E248" s="9">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>163</v>
+      </c>
+      <c r="B260" t="s">
+        <v>389</v>
+      </c>
+      <c r="D260" t="s">
+        <v>60</v>
+      </c>
+      <c r="E260">
         <v>11</v>
       </c>
-      <c r="F248" s="9" t="s">
+      <c r="F260">
+        <v>10</v>
+      </c>
+      <c r="H260" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>165</v>
+      </c>
+      <c r="B262" t="s">
         <v>392</v>
       </c>
-      <c r="G248" s="9"/>
-      <c r="H248" s="9"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9" t="s">
+      <c r="D262" t="s">
+        <v>48</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>165</v>
+      </c>
+      <c r="B263" t="s">
+        <v>392</v>
+      </c>
+      <c r="D263" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>165</v>
+      </c>
+      <c r="B264" t="s">
+        <v>392</v>
+      </c>
+      <c r="D264" t="s">
+        <v>48</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>165</v>
+      </c>
+      <c r="B265" t="s">
+        <v>392</v>
+      </c>
+      <c r="D265" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>165</v>
+      </c>
+      <c r="B266" t="s">
+        <v>392</v>
+      </c>
+      <c r="D266" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>165</v>
+      </c>
+      <c r="B267" t="s">
+        <v>392</v>
+      </c>
+      <c r="D267" t="s">
+        <v>48</v>
+      </c>
+      <c r="E267">
+        <v>6</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>165</v>
+      </c>
+      <c r="B268" t="s">
+        <v>392</v>
+      </c>
+      <c r="D268" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268">
+        <v>7</v>
+      </c>
+      <c r="F268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>165</v>
+      </c>
+      <c r="B269" t="s">
+        <v>392</v>
+      </c>
+      <c r="D269" t="s">
+        <v>48</v>
+      </c>
+      <c r="E269">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>165</v>
+      </c>
+      <c r="B270" t="s">
+        <v>392</v>
+      </c>
+      <c r="D270" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270">
+        <v>9</v>
+      </c>
+      <c r="F270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>165</v>
+      </c>
+      <c r="B271" t="s">
+        <v>392</v>
+      </c>
+      <c r="D271" t="s">
+        <v>48</v>
+      </c>
+      <c r="E271">
+        <v>10</v>
+      </c>
+      <c r="F271">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>165</v>
+      </c>
+      <c r="B272" t="s">
+        <v>392</v>
+      </c>
+      <c r="D272" t="s">
+        <v>48</v>
+      </c>
+      <c r="E272">
+        <v>11</v>
+      </c>
+      <c r="F272" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>166</v>
+      </c>
+      <c r="B274" t="s">
+        <v>392</v>
+      </c>
+      <c r="D274" t="s">
         <v>60</v>
       </c>
-      <c r="E250" s="9">
+      <c r="E274">
         <v>1</v>
       </c>
-      <c r="F250" s="9">
+      <c r="F274">
         <v>0</v>
       </c>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9" t="s">
+      <c r="H274" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>166</v>
+      </c>
+      <c r="B275" t="s">
+        <v>392</v>
+      </c>
+      <c r="D275" t="s">
         <v>60</v>
       </c>
-      <c r="E251" s="9">
+      <c r="E275">
         <v>2</v>
       </c>
-      <c r="F251" s="9">
+      <c r="F275">
         <v>1</v>
       </c>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9" t="s">
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>166</v>
+      </c>
+      <c r="B276" t="s">
+        <v>392</v>
+      </c>
+      <c r="D276" t="s">
         <v>60</v>
       </c>
-      <c r="E252" s="9">
+      <c r="E276">
         <v>3</v>
       </c>
-      <c r="F252" s="9">
+      <c r="F276">
         <v>2</v>
       </c>
-      <c r="G252" s="9"/>
-      <c r="H252" s="9"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9" t="s">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>166</v>
+      </c>
+      <c r="B277" t="s">
+        <v>392</v>
+      </c>
+      <c r="D277" t="s">
         <v>60</v>
       </c>
-      <c r="E253" s="9">
+      <c r="E277">
         <v>4</v>
       </c>
-      <c r="F253" s="9">
+      <c r="F277">
         <v>3</v>
       </c>
-      <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9" t="s">
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>166</v>
+      </c>
+      <c r="B278" t="s">
+        <v>392</v>
+      </c>
+      <c r="D278" t="s">
         <v>60</v>
       </c>
-      <c r="E254" s="9">
+      <c r="E278">
         <v>5</v>
       </c>
-      <c r="F254" s="9">
+      <c r="F278">
         <v>4</v>
       </c>
-      <c r="G254" s="9"/>
-      <c r="H254" s="9"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9" t="s">
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>166</v>
+      </c>
+      <c r="B279" t="s">
+        <v>392</v>
+      </c>
+      <c r="D279" t="s">
         <v>60</v>
       </c>
-      <c r="E255" s="9">
+      <c r="E279">
         <v>6</v>
       </c>
-      <c r="F255" s="9">
+      <c r="F279">
         <v>5</v>
       </c>
-      <c r="G255" s="9"/>
-      <c r="H255" s="9"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9" t="s">
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>166</v>
+      </c>
+      <c r="B280" t="s">
+        <v>392</v>
+      </c>
+      <c r="D280" t="s">
         <v>60</v>
       </c>
-      <c r="E256" s="9">
+      <c r="E280">
         <v>7</v>
       </c>
-      <c r="F256" s="9">
+      <c r="F280">
         <v>6</v>
       </c>
-      <c r="G256" s="9"/>
-      <c r="H256" s="9"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9" t="s">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>166</v>
+      </c>
+      <c r="B281" t="s">
+        <v>392</v>
+      </c>
+      <c r="D281" t="s">
         <v>60</v>
       </c>
-      <c r="E257" s="9">
+      <c r="E281">
         <v>8</v>
       </c>
-      <c r="F257" s="9">
+      <c r="F281">
         <v>7</v>
       </c>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9" t="s">
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>166</v>
+      </c>
+      <c r="B282" t="s">
+        <v>392</v>
+      </c>
+      <c r="D282" t="s">
         <v>60</v>
       </c>
-      <c r="E258" s="9">
+      <c r="E282">
         <v>9</v>
       </c>
-      <c r="F258" s="9">
+      <c r="F282">
         <v>8</v>
       </c>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9" t="s">
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>166</v>
+      </c>
+      <c r="B283" t="s">
+        <v>392</v>
+      </c>
+      <c r="D283" t="s">
         <v>60</v>
       </c>
-      <c r="E259" s="9">
+      <c r="E283">
         <v>10</v>
       </c>
-      <c r="F259" s="9">
+      <c r="F283">
         <v>9</v>
       </c>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9" t="s">
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>166</v>
+      </c>
+      <c r="B284" t="s">
+        <v>392</v>
+      </c>
+      <c r="D284" t="s">
         <v>60</v>
       </c>
-      <c r="E260" s="9">
+      <c r="E284">
         <v>11</v>
       </c>
-      <c r="F260" s="9">
+      <c r="F284">
         <v>10</v>
       </c>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E262" s="9">
+      <c r="H284" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>171</v>
+      </c>
+      <c r="B286" t="s">
+        <v>389</v>
+      </c>
+      <c r="D286" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286">
         <v>1</v>
       </c>
-      <c r="F262" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E263" s="9">
+      <c r="F286" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>171</v>
+      </c>
+      <c r="B287" t="s">
+        <v>389</v>
+      </c>
+      <c r="D287" t="s">
+        <v>48</v>
+      </c>
+      <c r="E287">
         <v>2</v>
       </c>
-      <c r="F263" s="9">
+      <c r="F287">
         <v>1</v>
       </c>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E264" s="9">
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>171</v>
+      </c>
+      <c r="B288" t="s">
+        <v>389</v>
+      </c>
+      <c r="D288" t="s">
+        <v>48</v>
+      </c>
+      <c r="E288">
         <v>3</v>
       </c>
-      <c r="F264" s="9">
+      <c r="F288">
         <v>2</v>
       </c>
-      <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E265" s="9">
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>171</v>
+      </c>
+      <c r="B289" t="s">
+        <v>389</v>
+      </c>
+      <c r="D289" t="s">
+        <v>48</v>
+      </c>
+      <c r="E289">
         <v>4</v>
       </c>
-      <c r="F265" s="9">
+      <c r="F289">
         <v>3</v>
       </c>
-      <c r="G265" s="9"/>
-      <c r="H265" s="9"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E266" s="9">
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>171</v>
+      </c>
+      <c r="B290" t="s">
+        <v>389</v>
+      </c>
+      <c r="D290" t="s">
+        <v>48</v>
+      </c>
+      <c r="E290">
         <v>5</v>
       </c>
-      <c r="F266" s="9">
+      <c r="F290">
         <v>4</v>
       </c>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E267" s="9">
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>171</v>
+      </c>
+      <c r="B291" t="s">
+        <v>389</v>
+      </c>
+      <c r="D291" t="s">
+        <v>48</v>
+      </c>
+      <c r="E291">
         <v>6</v>
       </c>
-      <c r="F267" s="9">
+      <c r="F291">
         <v>5</v>
       </c>
-      <c r="G267" s="9"/>
-      <c r="H267" s="9"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E268" s="9">
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>171</v>
+      </c>
+      <c r="B292" t="s">
+        <v>389</v>
+      </c>
+      <c r="D292" t="s">
+        <v>48</v>
+      </c>
+      <c r="E292">
         <v>7</v>
       </c>
-      <c r="F268" s="9">
+      <c r="F292">
         <v>6</v>
       </c>
-      <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="9">
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>171</v>
+      </c>
+      <c r="B293" t="s">
+        <v>389</v>
+      </c>
+      <c r="D293" t="s">
+        <v>48</v>
+      </c>
+      <c r="E293">
         <v>8</v>
       </c>
-      <c r="F269" s="9">
+      <c r="F293">
         <v>7</v>
       </c>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="9">
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>171</v>
+      </c>
+      <c r="B294" t="s">
+        <v>389</v>
+      </c>
+      <c r="D294" t="s">
+        <v>48</v>
+      </c>
+      <c r="E294">
         <v>9</v>
       </c>
-      <c r="F270" s="9">
+      <c r="F294">
         <v>8</v>
       </c>
-      <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E271" s="9">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>171</v>
+      </c>
+      <c r="B295" t="s">
+        <v>389</v>
+      </c>
+      <c r="D295" t="s">
+        <v>48</v>
+      </c>
+      <c r="E295">
         <v>10</v>
       </c>
-      <c r="F271" s="9">
+      <c r="F295">
         <v>9</v>
       </c>
-      <c r="G271" s="9"/>
-      <c r="H271" s="9"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E272" s="9">
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>171</v>
+      </c>
+      <c r="B296" t="s">
+        <v>389</v>
+      </c>
+      <c r="D296" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296">
         <v>11</v>
       </c>
-      <c r="F272" s="9" t="s">
+      <c r="F296" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>172</v>
+      </c>
+      <c r="B298" t="s">
+        <v>389</v>
+      </c>
+      <c r="D298" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="H298" t="s">
         <v>395</v>
       </c>
-      <c r="G272" s="9"/>
-      <c r="H272" s="9"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-      <c r="H273" s="9"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9" t="s">
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>172</v>
+      </c>
+      <c r="B299" t="s">
+        <v>389</v>
+      </c>
+      <c r="D299" t="s">
         <v>60</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
         <v>1</v>
       </c>
-      <c r="F274" s="9">
-        <v>0</v>
-      </c>
-      <c r="G274" s="9"/>
-      <c r="H274" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9" t="s">
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>172</v>
+      </c>
+      <c r="B300" t="s">
+        <v>389</v>
+      </c>
+      <c r="D300" t="s">
         <v>60</v>
       </c>
-      <c r="E275" s="9">
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
         <v>2</v>
       </c>
-      <c r="F275" s="9">
-        <v>1</v>
-      </c>
-      <c r="G275" s="9"/>
-      <c r="H275" s="9"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9" t="s">
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>172</v>
+      </c>
+      <c r="B301" t="s">
+        <v>389</v>
+      </c>
+      <c r="D301" t="s">
         <v>60</v>
       </c>
-      <c r="E276" s="9">
+      <c r="E301">
+        <v>4</v>
+      </c>
+      <c r="F301">
         <v>3</v>
       </c>
-      <c r="F276" s="9">
-        <v>2</v>
-      </c>
-      <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9" t="s">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>172</v>
+      </c>
+      <c r="B302" t="s">
+        <v>389</v>
+      </c>
+      <c r="D302" t="s">
         <v>60</v>
       </c>
-      <c r="E277" s="9">
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
         <v>4</v>
       </c>
-      <c r="F277" s="9">
-        <v>3</v>
-      </c>
-      <c r="G277" s="9"/>
-      <c r="H277" s="9"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9" t="s">
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>172</v>
+      </c>
+      <c r="B303" t="s">
+        <v>389</v>
+      </c>
+      <c r="D303" t="s">
         <v>60</v>
       </c>
-      <c r="E278" s="9">
+      <c r="E303">
+        <v>6</v>
+      </c>
+      <c r="F303">
         <v>5</v>
       </c>
-      <c r="F278" s="9">
-        <v>4</v>
-      </c>
-      <c r="G278" s="9"/>
-      <c r="H278" s="9"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9" t="s">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>172</v>
+      </c>
+      <c r="B304" t="s">
+        <v>389</v>
+      </c>
+      <c r="D304" t="s">
         <v>60</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E304">
+        <v>7</v>
+      </c>
+      <c r="F304">
         <v>6</v>
       </c>
-      <c r="F279" s="9">
-        <v>5</v>
-      </c>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9" t="s">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>172</v>
+      </c>
+      <c r="B305" t="s">
+        <v>389</v>
+      </c>
+      <c r="D305" t="s">
         <v>60</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E305">
+        <v>8</v>
+      </c>
+      <c r="F305">
         <v>7</v>
       </c>
-      <c r="F280" s="9">
-        <v>6</v>
-      </c>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9" t="s">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>172</v>
+      </c>
+      <c r="B306" t="s">
+        <v>389</v>
+      </c>
+      <c r="D306" t="s">
         <v>60</v>
       </c>
-      <c r="E281" s="9">
+      <c r="E306">
+        <v>9</v>
+      </c>
+      <c r="F306">
         <v>8</v>
       </c>
-      <c r="F281" s="9">
-        <v>7</v>
-      </c>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9" t="s">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>172</v>
+      </c>
+      <c r="B307" t="s">
+        <v>389</v>
+      </c>
+      <c r="D307" t="s">
         <v>60</v>
       </c>
-      <c r="E282" s="9">
+      <c r="E307">
+        <v>10</v>
+      </c>
+      <c r="F307">
         <v>9</v>
       </c>
-      <c r="F282" s="9">
-        <v>8</v>
-      </c>
-      <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9" t="s">
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>172</v>
+      </c>
+      <c r="B308" t="s">
+        <v>389</v>
+      </c>
+      <c r="D308" t="s">
         <v>60</v>
       </c>
-      <c r="E283" s="9">
+      <c r="E308">
+        <v>11</v>
+      </c>
+      <c r="F308">
         <v>10</v>
       </c>
-      <c r="F283" s="9">
-        <v>9</v>
-      </c>
-      <c r="G283" s="9"/>
-      <c r="H283" s="9"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E284" s="9">
-        <v>11</v>
-      </c>
-      <c r="F284" s="9">
-        <v>10</v>
-      </c>
-      <c r="G284" s="9"/>
-      <c r="H284" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E286" s="9">
-        <v>1</v>
-      </c>
-      <c r="F286" s="9" t="s">
+      <c r="H308" t="s">
         <v>396</v>
       </c>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E287" s="9">
-        <v>2</v>
-      </c>
-      <c r="F287" s="9">
-        <v>1</v>
-      </c>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E288" s="9">
-        <v>3</v>
-      </c>
-      <c r="F288" s="9">
-        <v>2</v>
-      </c>
-      <c r="G288" s="9"/>
-      <c r="H288" s="9"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E289" s="9">
-        <v>4</v>
-      </c>
-      <c r="F289" s="9">
-        <v>3</v>
-      </c>
-      <c r="G289" s="9"/>
-      <c r="H289" s="9"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E290" s="9">
-        <v>5</v>
-      </c>
-      <c r="F290" s="9">
-        <v>4</v>
-      </c>
-      <c r="G290" s="9"/>
-      <c r="H290" s="9"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E291" s="9">
-        <v>6</v>
-      </c>
-      <c r="F291" s="9">
-        <v>5</v>
-      </c>
-      <c r="G291" s="9"/>
-      <c r="H291" s="9"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="9">
-        <v>7</v>
-      </c>
-      <c r="F292" s="9">
-        <v>6</v>
-      </c>
-      <c r="G292" s="9"/>
-      <c r="H292" s="9"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E293" s="9">
-        <v>8</v>
-      </c>
-      <c r="F293" s="9">
-        <v>7</v>
-      </c>
-      <c r="G293" s="9"/>
-      <c r="H293" s="9"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E294" s="9">
-        <v>9</v>
-      </c>
-      <c r="F294" s="9">
-        <v>8</v>
-      </c>
-      <c r="G294" s="9"/>
-      <c r="H294" s="9"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E295" s="9">
-        <v>10</v>
-      </c>
-      <c r="F295" s="9">
-        <v>9</v>
-      </c>
-      <c r="G295" s="9"/>
-      <c r="H295" s="9"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E296" s="9">
-        <v>11</v>
-      </c>
-      <c r="F296" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G296" s="9"/>
-      <c r="H296" s="9"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E298" s="9">
-        <v>1</v>
-      </c>
-      <c r="F298" s="9">
-        <v>0</v>
-      </c>
-      <c r="G298" s="9"/>
-      <c r="H298" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E299" s="9">
-        <v>2</v>
-      </c>
-      <c r="F299" s="9">
-        <v>1</v>
-      </c>
-      <c r="G299" s="9"/>
-      <c r="H299" s="9"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E300" s="9">
-        <v>3</v>
-      </c>
-      <c r="F300" s="9">
-        <v>2</v>
-      </c>
-      <c r="G300" s="9"/>
-      <c r="H300" s="9"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B301" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E301" s="9">
-        <v>4</v>
-      </c>
-      <c r="F301" s="9">
-        <v>3</v>
-      </c>
-      <c r="G301" s="9"/>
-      <c r="H301" s="9"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E302" s="9">
-        <v>5</v>
-      </c>
-      <c r="F302" s="9">
-        <v>4</v>
-      </c>
-      <c r="G302" s="9"/>
-      <c r="H302" s="9"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E303" s="9">
-        <v>6</v>
-      </c>
-      <c r="F303" s="9">
-        <v>5</v>
-      </c>
-      <c r="G303" s="9"/>
-      <c r="H303" s="9"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E304" s="9">
-        <v>7</v>
-      </c>
-      <c r="F304" s="9">
-        <v>6</v>
-      </c>
-      <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B305" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E305" s="9">
-        <v>8</v>
-      </c>
-      <c r="F305" s="9">
-        <v>7</v>
-      </c>
-      <c r="G305" s="9"/>
-      <c r="H305" s="9"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E306" s="9">
-        <v>9</v>
-      </c>
-      <c r="F306" s="9">
-        <v>8</v>
-      </c>
-      <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E307" s="9">
-        <v>10</v>
-      </c>
-      <c r="F307" s="9">
-        <v>9</v>
-      </c>
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E308" s="9">
-        <v>11</v>
-      </c>
-      <c r="F308" s="9">
-        <v>10</v>
-      </c>
-      <c r="G308" s="9"/>
-      <c r="H308" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="310">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>168</v>
       </c>
-      <c r="B310" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E310" s="9">
+      <c r="B310" t="s">
+        <v>397</v>
+      </c>
+      <c r="D310" t="s">
+        <v>48</v>
+      </c>
+      <c r="E310">
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>168</v>
       </c>
-      <c r="B311" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E311" s="9">
+      <c r="B311" t="s">
+        <v>397</v>
+      </c>
+      <c r="D311" t="s">
+        <v>48</v>
+      </c>
+      <c r="E311">
         <v>2</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>168</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" t="s">
+        <v>397</v>
+      </c>
+      <c r="D312" t="s">
+        <v>48</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+      <c r="F312" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D312" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E312" s="9">
-        <v>3</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>399</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I147"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:I147" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="25.42578125"/>
-    <col customWidth="1" min="3" max="5" width="15.42578125"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="5" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -9583,39 +9047,39 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>401</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.42578125"/>
-    <col customWidth="1" min="2" max="2" width="15.42578125"/>
-    <col customWidth="1" min="3" max="3" width="17.42578125"/>
-    <col customWidth="1" min="4" max="4" width="15.42578125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="61.42578125"/>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="5" max="5" width="61.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -9626,13 +9090,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -9643,13 +9107,13 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9660,13 +9124,13 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -9677,13 +9141,13 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -9694,13 +9158,13 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -9711,13 +9175,13 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" ht="42.75">
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -9728,13 +9192,13 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -9745,13 +9209,13 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -9762,13 +9226,13 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -9779,13 +9243,13 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -9796,13 +9260,13 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -9813,13 +9277,13 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -9830,13 +9294,13 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -9847,13 +9311,13 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -9864,13 +9328,13 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -9881,13 +9345,13 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -9897,14 +9361,14 @@
       <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>403</v>
+      <c r="D17" t="s">
+        <v>402</v>
       </c>
       <c r="E17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -9915,13 +9379,13 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -9932,13 +9396,13 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -9949,13 +9413,13 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -9966,13 +9430,13 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -9983,13 +9447,13 @@
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -10000,13 +9464,13 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="24" ht="128.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -10017,13 +9481,13 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" ht="57">
+        <v>403</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -10034,42 +9498,41 @@
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>415</v>
+        <v>403</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.42578125"/>
-    <col customWidth="1" min="2" max="2" width="25.42578125"/>
-    <col customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col customWidth="1" min="4" max="4" width="46.85546875"/>
-    <col customWidth="1" min="5" max="5" width="18.7109375"/>
-    <col customWidth="1" min="6" max="6" width="15.42578125"/>
-    <col customWidth="1" min="7" max="7" width="19.42578125"/>
-    <col customWidth="1" min="8" max="8" width="11.7109375"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="46.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -10077,49 +9540,48 @@
         <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.42578125"/>
-    <col customWidth="1" min="2" max="2" width="62.42578125"/>
-    <col customWidth="1" min="3" max="4" width="19.42578125"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" customWidth="1"/>
+    <col min="3" max="4" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -10127,22 +9589,47 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de74a017-5862-4229-b645-fe47ad4ea8f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9">
+      <UserInfo>
+        <DisplayName>Anstrom, Kevin Joseph</DisplayName>
+        <AccountId>314</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100133AC6754998794EB244644CDAF56CA7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="581f237a91a330d020d2e6bb45c19f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de74a017-5862-4229-b645-fe47ad4ea8f2" xmlns:ns3="d75b2525-1797-4e37-90e4-5bb561c6f6d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922ac6b8c412e9d6b92bfa8a5d4025cf" ns2:_="" ns3:_="">
     <xsd:import namespace="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
@@ -10385,41 +9872,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de74a017-5862-4229-b645-fe47ad4ea8f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="d75b2525-1797-4e37-90e4-5bb561c6f6d9">
-      <UserInfo>
-        <DisplayName>Anstrom, Kevin Joseph</DisplayName>
-        <AccountId>314</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964713FE-3741-4FF9-AF9F-D278E3D5F379}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BDE4B5-03B8-467E-A500-2B9ABD58995E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d75b2525-1797-4e37-90e4-5bb561c6f6d9"/>
+    <ds:schemaRef ds:uri="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25BDE4B5-03B8-467E-A500-2B9ABD58995E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D37C17F-EF16-459F-9733-1EF03C68BEBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D37C17F-EF16-459F-9733-1EF03C68BEBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964713FE-3741-4FF9-AF9F-D278E3D5F379}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de74a017-5862-4229-b645-fe47ad4ea8f2"/>
+    <ds:schemaRef ds:uri="d75b2525-1797-4e37-90e4-5bb561c6f6d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>